--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U488"/>
+  <dimension ref="A1:U489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32141,7 +32141,7 @@
         <v>44615</v>
       </c>
       <c r="B488" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="C488" t="n">
         <v>4.18</v>
@@ -32150,7 +32150,7 @@
         <v>4.504</v>
       </c>
       <c r="E488" t="n">
-        <v>4.844</v>
+        <v>4.828</v>
       </c>
       <c r="F488" t="n">
         <v>5.572</v>
@@ -32199,6 +32199,71 @@
       </c>
       <c r="U488" t="n">
         <v>7.116</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="C489" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D489" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E489" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="F489" t="n">
+        <v>5.596</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="H489" t="n">
+        <v>6.046</v>
+      </c>
+      <c r="I489" t="n">
+        <v>6.473</v>
+      </c>
+      <c r="J489" t="n">
+        <v>6.671</v>
+      </c>
+      <c r="K489" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="L489" t="n">
+        <v>6.793</v>
+      </c>
+      <c r="M489" t="n">
+        <v>6.759</v>
+      </c>
+      <c r="N489" t="n">
+        <v>6.942</v>
+      </c>
+      <c r="O489" t="n">
+        <v>6.999</v>
+      </c>
+      <c r="P489" t="n">
+        <v>7.048</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>7.027</v>
+      </c>
+      <c r="R489" t="n">
+        <v>7.084</v>
+      </c>
+      <c r="S489" t="n">
+        <v>7.034</v>
+      </c>
+      <c r="T489" t="n">
+        <v>7.081</v>
+      </c>
+      <c r="U489" t="n">
+        <v>7.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U489"/>
+  <dimension ref="A1:U490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32212,13 +32212,13 @@
         <v>4.21</v>
       </c>
       <c r="D489" t="n">
-        <v>4.4</v>
+        <v>4.397</v>
       </c>
       <c r="E489" t="n">
         <v>4.851</v>
       </c>
       <c r="F489" t="n">
-        <v>5.596</v>
+        <v>5.603</v>
       </c>
       <c r="G489" t="n">
         <v>5.96</v>
@@ -32230,7 +32230,7 @@
         <v>6.473</v>
       </c>
       <c r="J489" t="n">
-        <v>6.671</v>
+        <v>6.644</v>
       </c>
       <c r="K489" t="n">
         <v>6.707</v>
@@ -32242,7 +32242,7 @@
         <v>6.759</v>
       </c>
       <c r="N489" t="n">
-        <v>6.942</v>
+        <v>6.93</v>
       </c>
       <c r="O489" t="n">
         <v>6.999</v>
@@ -32251,7 +32251,7 @@
         <v>7.048</v>
       </c>
       <c r="Q489" t="n">
-        <v>7.027</v>
+        <v>7.023</v>
       </c>
       <c r="R489" t="n">
         <v>7.084</v>
@@ -32264,6 +32264,71 @@
       </c>
       <c r="U489" t="n">
         <v>7.12</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="C490" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D490" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="E490" t="n">
+        <v>4.803</v>
+      </c>
+      <c r="F490" t="n">
+        <v>5.574</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.935</v>
+      </c>
+      <c r="H490" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="I490" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="J490" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="K490" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="L490" t="n">
+        <v>6.768</v>
+      </c>
+      <c r="M490" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="N490" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="O490" t="n">
+        <v>6.976</v>
+      </c>
+      <c r="P490" t="n">
+        <v>7.017</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="R490" t="n">
+        <v>7.058</v>
+      </c>
+      <c r="S490" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="T490" t="n">
+        <v>7.068</v>
+      </c>
+      <c r="U490" t="n">
+        <v>7.094</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U490"/>
+  <dimension ref="A1:U491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32331,6 +32331,71 @@
         <v>7.094</v>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B491" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="C491" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D491" t="n">
+        <v>4.377</v>
+      </c>
+      <c r="E491" t="n">
+        <v>4.843</v>
+      </c>
+      <c r="F491" t="n">
+        <v>5.591</v>
+      </c>
+      <c r="G491" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="H491" t="n">
+        <v>6.047</v>
+      </c>
+      <c r="I491" t="n">
+        <v>6.473</v>
+      </c>
+      <c r="J491" t="n">
+        <v>6.624</v>
+      </c>
+      <c r="K491" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="L491" t="n">
+        <v>6.768</v>
+      </c>
+      <c r="M491" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="N491" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="O491" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="P491" t="n">
+        <v>7.036</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>7.014</v>
+      </c>
+      <c r="R491" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="S491" t="n">
+        <v>7.052</v>
+      </c>
+      <c r="T491" t="n">
+        <v>7.107</v>
+      </c>
+      <c r="U491" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U491"/>
+  <dimension ref="A1:U492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32396,6 +32396,71 @@
         <v>7.14</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B492" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C492" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D492" t="n">
+        <v>4.522</v>
+      </c>
+      <c r="E492" t="n">
+        <v>4.954</v>
+      </c>
+      <c r="F492" t="n">
+        <v>5.677</v>
+      </c>
+      <c r="G492" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="H492" t="n">
+        <v>6.097</v>
+      </c>
+      <c r="I492" t="n">
+        <v>6.531</v>
+      </c>
+      <c r="J492" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="K492" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="L492" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="M492" t="n">
+        <v>6.814</v>
+      </c>
+      <c r="N492" t="n">
+        <v>6.954</v>
+      </c>
+      <c r="O492" t="n">
+        <v>7.036</v>
+      </c>
+      <c r="P492" t="n">
+        <v>7.093</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>7.076</v>
+      </c>
+      <c r="R492" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="S492" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="T492" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="U492" t="n">
+        <v>7.192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U492"/>
+  <dimension ref="A1:U493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32431,7 +32431,7 @@
         <v>6.72</v>
       </c>
       <c r="L492" t="n">
-        <v>6.83</v>
+        <v>6.829</v>
       </c>
       <c r="M492" t="n">
         <v>6.814</v>
@@ -32458,7 +32458,72 @@
         <v>7.15</v>
       </c>
       <c r="U492" t="n">
-        <v>7.192</v>
+        <v>7.185</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B493" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C493" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D493" t="n">
+        <v>4.603</v>
+      </c>
+      <c r="E493" t="n">
+        <v>4.961</v>
+      </c>
+      <c r="F493" t="n">
+        <v>5.701</v>
+      </c>
+      <c r="G493" t="n">
+        <v>6.041</v>
+      </c>
+      <c r="H493" t="n">
+        <v>6.112</v>
+      </c>
+      <c r="I493" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="J493" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="K493" t="n">
+        <v>6.746</v>
+      </c>
+      <c r="L493" t="n">
+        <v>6.844</v>
+      </c>
+      <c r="M493" t="n">
+        <v>6.826</v>
+      </c>
+      <c r="N493" t="n">
+        <v>6.985</v>
+      </c>
+      <c r="O493" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="P493" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>7.111</v>
+      </c>
+      <c r="R493" t="n">
+        <v>7.169</v>
+      </c>
+      <c r="S493" t="n">
+        <v>7.165</v>
+      </c>
+      <c r="T493" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U493" t="n">
+        <v>7.248</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U493"/>
+  <dimension ref="A1:U494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32469,7 +32469,7 @@
         <v>3.79</v>
       </c>
       <c r="C493" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="D493" t="n">
         <v>4.603</v>
@@ -32524,6 +32524,71 @@
       </c>
       <c r="U493" t="n">
         <v>7.248</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B494" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C494" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D494" t="n">
+        <v>4.606</v>
+      </c>
+      <c r="E494" t="n">
+        <v>4.968</v>
+      </c>
+      <c r="F494" t="n">
+        <v>5.695</v>
+      </c>
+      <c r="G494" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="H494" t="n">
+        <v>6.113</v>
+      </c>
+      <c r="I494" t="n">
+        <v>6.555</v>
+      </c>
+      <c r="J494" t="n">
+        <v>6.706</v>
+      </c>
+      <c r="K494" t="n">
+        <v>6.761</v>
+      </c>
+      <c r="L494" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="M494" t="n">
+        <v>6.815</v>
+      </c>
+      <c r="N494" t="n">
+        <v>6.985</v>
+      </c>
+      <c r="O494" t="n">
+        <v>7.064</v>
+      </c>
+      <c r="P494" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>7.121</v>
+      </c>
+      <c r="R494" t="n">
+        <v>7.183</v>
+      </c>
+      <c r="S494" t="n">
+        <v>7.193</v>
+      </c>
+      <c r="T494" t="n">
+        <v>7.121</v>
+      </c>
+      <c r="U494" t="n">
+        <v>7.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -32534,7 +32534,7 @@
         <v>3.8</v>
       </c>
       <c r="C494" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="D494" t="n">
         <v>4.606</v>
@@ -32564,7 +32564,7 @@
         <v>6.84</v>
       </c>
       <c r="M494" t="n">
-        <v>6.815</v>
+        <v>6.813</v>
       </c>
       <c r="N494" t="n">
         <v>6.985</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U494"/>
+  <dimension ref="A1:U495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32591,6 +32591,71 @@
         <v>7.24</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B495" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C495" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D495" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E495" t="n">
+        <v>5.019</v>
+      </c>
+      <c r="F495" t="n">
+        <v>5.795</v>
+      </c>
+      <c r="G495" t="n">
+        <v>6.132</v>
+      </c>
+      <c r="H495" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="I495" t="n">
+        <v>6.629</v>
+      </c>
+      <c r="J495" t="n">
+        <v>6.786</v>
+      </c>
+      <c r="K495" t="n">
+        <v>6.828</v>
+      </c>
+      <c r="L495" t="n">
+        <v>6.918</v>
+      </c>
+      <c r="M495" t="n">
+        <v>6.888</v>
+      </c>
+      <c r="N495" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="O495" t="n">
+        <v>7.138</v>
+      </c>
+      <c r="P495" t="n">
+        <v>7.224</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="R495" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="S495" t="n">
+        <v>7.277</v>
+      </c>
+      <c r="T495" t="n">
+        <v>7.192</v>
+      </c>
+      <c r="U495" t="n">
+        <v>7.286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U495"/>
+  <dimension ref="A1:U496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32632,7 +32632,7 @@
         <v>6.888</v>
       </c>
       <c r="N495" t="n">
-        <v>7.05</v>
+        <v>7.035</v>
       </c>
       <c r="O495" t="n">
         <v>7.138</v>
@@ -32654,6 +32654,71 @@
       </c>
       <c r="U495" t="n">
         <v>7.286</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B496" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C496" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D496" t="n">
+        <v>4.604</v>
+      </c>
+      <c r="E496" t="n">
+        <v>5.016</v>
+      </c>
+      <c r="F496" t="n">
+        <v>5.802</v>
+      </c>
+      <c r="G496" t="n">
+        <v>6.132</v>
+      </c>
+      <c r="H496" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="I496" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="J496" t="n">
+        <v>6.786</v>
+      </c>
+      <c r="K496" t="n">
+        <v>6.846</v>
+      </c>
+      <c r="L496" t="n">
+        <v>6.922</v>
+      </c>
+      <c r="M496" t="n">
+        <v>6.895</v>
+      </c>
+      <c r="N496" t="n">
+        <v>7.048</v>
+      </c>
+      <c r="O496" t="n">
+        <v>7.143</v>
+      </c>
+      <c r="P496" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>7.198</v>
+      </c>
+      <c r="R496" t="n">
+        <v>7.262</v>
+      </c>
+      <c r="S496" t="n">
+        <v>7.267</v>
+      </c>
+      <c r="T496" t="n">
+        <v>7.207</v>
+      </c>
+      <c r="U496" t="n">
+        <v>7.247</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U496"/>
+  <dimension ref="A1:U497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32673,7 +32673,7 @@
         <v>5.016</v>
       </c>
       <c r="F496" t="n">
-        <v>5.802</v>
+        <v>5.795</v>
       </c>
       <c r="G496" t="n">
         <v>6.132</v>
@@ -32719,6 +32719,71 @@
       </c>
       <c r="U496" t="n">
         <v>7.247</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B497" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C497" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D497" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="E497" t="n">
+        <v>5.023</v>
+      </c>
+      <c r="F497" t="n">
+        <v>5.762</v>
+      </c>
+      <c r="G497" t="n">
+        <v>6.085</v>
+      </c>
+      <c r="H497" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="I497" t="n">
+        <v>6.608</v>
+      </c>
+      <c r="J497" t="n">
+        <v>6.767</v>
+      </c>
+      <c r="K497" t="n">
+        <v>6.828</v>
+      </c>
+      <c r="L497" t="n">
+        <v>6.874</v>
+      </c>
+      <c r="M497" t="n">
+        <v>6.845</v>
+      </c>
+      <c r="N497" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="O497" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="P497" t="n">
+        <v>7.206</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>7.165</v>
+      </c>
+      <c r="R497" t="n">
+        <v>7.211</v>
+      </c>
+      <c r="S497" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="T497" t="n">
+        <v>7.233</v>
+      </c>
+      <c r="U497" t="n">
+        <v>7.298</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U497"/>
+  <dimension ref="A1:U498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32729,7 +32729,7 @@
         <v>3.78</v>
       </c>
       <c r="C497" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="D497" t="n">
         <v>4.635</v>
@@ -32784,6 +32784,71 @@
       </c>
       <c r="U497" t="n">
         <v>7.298</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C498" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D498" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="E498" t="n">
+        <v>4.976</v>
+      </c>
+      <c r="F498" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="G498" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H498" t="n">
+        <v>6.131</v>
+      </c>
+      <c r="I498" t="n">
+        <v>6.562</v>
+      </c>
+      <c r="J498" t="n">
+        <v>6.722</v>
+      </c>
+      <c r="K498" t="n">
+        <v>6.779</v>
+      </c>
+      <c r="L498" t="n">
+        <v>6.847</v>
+      </c>
+      <c r="M498" t="n">
+        <v>6.809</v>
+      </c>
+      <c r="N498" t="n">
+        <v>7.004</v>
+      </c>
+      <c r="O498" t="n">
+        <v>7.017</v>
+      </c>
+      <c r="P498" t="n">
+        <v>7.153</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>7.123</v>
+      </c>
+      <c r="R498" t="n">
+        <v>7.167</v>
+      </c>
+      <c r="S498" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="T498" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="U498" t="n">
+        <v>7.271</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U498"/>
+  <dimension ref="A1:U499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32851,6 +32851,71 @@
         <v>7.271</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="C499" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D499" t="n">
+        <v>4.564</v>
+      </c>
+      <c r="E499" t="n">
+        <v>4.994</v>
+      </c>
+      <c r="F499" t="n">
+        <v>5.743</v>
+      </c>
+      <c r="G499" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="H499" t="n">
+        <v>6.172</v>
+      </c>
+      <c r="I499" t="n">
+        <v>6.596</v>
+      </c>
+      <c r="J499" t="n">
+        <v>6.767</v>
+      </c>
+      <c r="K499" t="n">
+        <v>6.819</v>
+      </c>
+      <c r="L499" t="n">
+        <v>6.894</v>
+      </c>
+      <c r="M499" t="n">
+        <v>6.855</v>
+      </c>
+      <c r="N499" t="n">
+        <v>7.013</v>
+      </c>
+      <c r="O499" t="n">
+        <v>6.999</v>
+      </c>
+      <c r="P499" t="n">
+        <v>7.178</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>7.167</v>
+      </c>
+      <c r="R499" t="n">
+        <v>7.205</v>
+      </c>
+      <c r="S499" t="n">
+        <v>7.287</v>
+      </c>
+      <c r="T499" t="n">
+        <v>7.224</v>
+      </c>
+      <c r="U499" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -32856,7 +32856,7 @@
         <v>44631</v>
       </c>
       <c r="B499" t="n">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="C499" t="n">
         <v>4.35</v>
@@ -32877,7 +32877,7 @@
         <v>6.172</v>
       </c>
       <c r="I499" t="n">
-        <v>6.596</v>
+        <v>6.58</v>
       </c>
       <c r="J499" t="n">
         <v>6.767</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U499"/>
+  <dimension ref="A1:U500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32916,6 +32916,71 @@
         <v>7.29</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B500" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="C500" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D500" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E500" t="n">
+        <v>4.963</v>
+      </c>
+      <c r="F500" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="G500" t="n">
+        <v>6.061</v>
+      </c>
+      <c r="H500" t="n">
+        <v>6.155</v>
+      </c>
+      <c r="I500" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J500" t="n">
+        <v>6.754</v>
+      </c>
+      <c r="K500" t="n">
+        <v>6.794</v>
+      </c>
+      <c r="L500" t="n">
+        <v>6.893</v>
+      </c>
+      <c r="M500" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="N500" t="n">
+        <v>7.026</v>
+      </c>
+      <c r="O500" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="P500" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>7.169</v>
+      </c>
+      <c r="R500" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="S500" t="n">
+        <v>7.285</v>
+      </c>
+      <c r="T500" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="U500" t="n">
+        <v>7.298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U500"/>
+  <dimension ref="A1:U501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32921,7 +32921,7 @@
         <v>44634</v>
       </c>
       <c r="B500" t="n">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="C500" t="n">
         <v>4.33</v>
@@ -32979,6 +32979,71 @@
       </c>
       <c r="U500" t="n">
         <v>7.298</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C501" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D501" t="n">
+        <v>4.521</v>
+      </c>
+      <c r="E501" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F501" t="n">
+        <v>5.678</v>
+      </c>
+      <c r="G501" t="n">
+        <v>6.002</v>
+      </c>
+      <c r="H501" t="n">
+        <v>6.112</v>
+      </c>
+      <c r="I501" t="n">
+        <v>6.565</v>
+      </c>
+      <c r="J501" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="K501" t="n">
+        <v>6.796</v>
+      </c>
+      <c r="L501" t="n">
+        <v>6.866</v>
+      </c>
+      <c r="M501" t="n">
+        <v>6.821</v>
+      </c>
+      <c r="N501" t="n">
+        <v>7.009</v>
+      </c>
+      <c r="O501" t="n">
+        <v>7.014</v>
+      </c>
+      <c r="P501" t="n">
+        <v>7.147</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>7.141</v>
+      </c>
+      <c r="R501" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="S501" t="n">
+        <v>7.263</v>
+      </c>
+      <c r="T501" t="n">
+        <v>7.212</v>
+      </c>
+      <c r="U501" t="n">
+        <v>7.274</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U501"/>
+  <dimension ref="A1:U502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33046,6 +33046,71 @@
         <v>7.274</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C502" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D502" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E502" t="n">
+        <v>4.984</v>
+      </c>
+      <c r="F502" t="n">
+        <v>5.661</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="H502" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="I502" t="n">
+        <v>6.526</v>
+      </c>
+      <c r="J502" t="n">
+        <v>6.722</v>
+      </c>
+      <c r="K502" t="n">
+        <v>6.788</v>
+      </c>
+      <c r="L502" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="M502" t="n">
+        <v>6.788</v>
+      </c>
+      <c r="N502" t="n">
+        <v>7.003</v>
+      </c>
+      <c r="O502" t="n">
+        <v>7.101</v>
+      </c>
+      <c r="P502" t="n">
+        <v>7.147</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="R502" t="n">
+        <v>7.167</v>
+      </c>
+      <c r="S502" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="T502" t="n">
+        <v>7.217</v>
+      </c>
+      <c r="U502" t="n">
+        <v>7.269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U502"/>
+  <dimension ref="A1:U503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33111,6 +33111,71 @@
         <v>7.269</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="C503" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D503" t="n">
+        <v>4.466</v>
+      </c>
+      <c r="E503" t="n">
+        <v>4.982</v>
+      </c>
+      <c r="F503" t="n">
+        <v>5.645</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.938</v>
+      </c>
+      <c r="H503" t="n">
+        <v>6.025</v>
+      </c>
+      <c r="I503" t="n">
+        <v>6.537</v>
+      </c>
+      <c r="J503" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="K503" t="n">
+        <v>6.754</v>
+      </c>
+      <c r="L503" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="M503" t="n">
+        <v>6.778</v>
+      </c>
+      <c r="N503" t="n">
+        <v>6.977</v>
+      </c>
+      <c r="O503" t="n">
+        <v>7.084</v>
+      </c>
+      <c r="P503" t="n">
+        <v>7.137</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>7.109</v>
+      </c>
+      <c r="R503" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="S503" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="T503" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="U503" t="n">
+        <v>7.262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U503"/>
+  <dimension ref="A1:U504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33176,6 +33176,71 @@
         <v>7.262</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C504" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D504" t="n">
+        <v>4.335</v>
+      </c>
+      <c r="E504" t="n">
+        <v>4.968</v>
+      </c>
+      <c r="F504" t="n">
+        <v>5.639</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.966</v>
+      </c>
+      <c r="H504" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="I504" t="n">
+        <v>6.537</v>
+      </c>
+      <c r="J504" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="K504" t="n">
+        <v>6.771</v>
+      </c>
+      <c r="L504" t="n">
+        <v>6.818</v>
+      </c>
+      <c r="M504" t="n">
+        <v>6.781</v>
+      </c>
+      <c r="N504" t="n">
+        <v>7.007</v>
+      </c>
+      <c r="O504" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="P504" t="n">
+        <v>7.136</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="R504" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="S504" t="n">
+        <v>7.226</v>
+      </c>
+      <c r="T504" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="U504" t="n">
+        <v>7.245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U504"/>
+  <dimension ref="A1:U505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33241,6 +33241,71 @@
         <v>7.245</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="C505" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D505" t="n">
+        <v>4.572</v>
+      </c>
+      <c r="E505" t="n">
+        <v>4.992</v>
+      </c>
+      <c r="F505" t="n">
+        <v>5.701</v>
+      </c>
+      <c r="G505" t="n">
+        <v>6.043</v>
+      </c>
+      <c r="H505" t="n">
+        <v>6.103</v>
+      </c>
+      <c r="I505" t="n">
+        <v>6.578</v>
+      </c>
+      <c r="J505" t="n">
+        <v>6.741</v>
+      </c>
+      <c r="K505" t="n">
+        <v>6.813</v>
+      </c>
+      <c r="L505" t="n">
+        <v>6.864</v>
+      </c>
+      <c r="M505" t="n">
+        <v>6.831</v>
+      </c>
+      <c r="N505" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="O505" t="n">
+        <v>7.137</v>
+      </c>
+      <c r="P505" t="n">
+        <v>7.174</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>7.161</v>
+      </c>
+      <c r="R505" t="n">
+        <v>7.196</v>
+      </c>
+      <c r="S505" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="T505" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="U505" t="n">
+        <v>7.281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U505"/>
+  <dimension ref="A1:U506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33306,6 +33306,71 @@
         <v>7.281</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C506" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D506" t="n">
+        <v>4.536</v>
+      </c>
+      <c r="E506" t="n">
+        <v>5</v>
+      </c>
+      <c r="F506" t="n">
+        <v>5.698</v>
+      </c>
+      <c r="G506" t="n">
+        <v>6.038</v>
+      </c>
+      <c r="H506" t="n">
+        <v>6.089</v>
+      </c>
+      <c r="I506" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="J506" t="n">
+        <v>6.728</v>
+      </c>
+      <c r="K506" t="n">
+        <v>6.788</v>
+      </c>
+      <c r="L506" t="n">
+        <v>6.852</v>
+      </c>
+      <c r="M506" t="n">
+        <v>6.831</v>
+      </c>
+      <c r="N506" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="O506" t="n">
+        <v>7.109</v>
+      </c>
+      <c r="P506" t="n">
+        <v>7.161</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="R506" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="S506" t="n">
+        <v>7.251</v>
+      </c>
+      <c r="T506" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="U506" t="n">
+        <v>7.282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U506"/>
+  <dimension ref="A1:U507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33371,6 +33371,71 @@
         <v>7.282</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B507" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C507" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D507" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E507" t="n">
+        <v>5.014</v>
+      </c>
+      <c r="F507" t="n">
+        <v>5.716</v>
+      </c>
+      <c r="G507" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="H507" t="n">
+        <v>6.094</v>
+      </c>
+      <c r="I507" t="n">
+        <v>6.555</v>
+      </c>
+      <c r="J507" t="n">
+        <v>6.727</v>
+      </c>
+      <c r="K507" t="n">
+        <v>6.788</v>
+      </c>
+      <c r="L507" t="n">
+        <v>6.861</v>
+      </c>
+      <c r="M507" t="n">
+        <v>6.834</v>
+      </c>
+      <c r="N507" t="n">
+        <v>7.065</v>
+      </c>
+      <c r="O507" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="P507" t="n">
+        <v>7.165</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="R507" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="S507" t="n">
+        <v>7.251</v>
+      </c>
+      <c r="T507" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="U507" t="n">
+        <v>7.274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U507"/>
+  <dimension ref="A1:U508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33246,10 +33246,10 @@
         <v>44642</v>
       </c>
       <c r="B505" t="n">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="C505" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="D505" t="n">
         <v>4.572</v>
@@ -33434,6 +33434,71 @@
       </c>
       <c r="U507" t="n">
         <v>7.274</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B508" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C508" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D508" t="n">
+        <v>4.474</v>
+      </c>
+      <c r="E508" t="n">
+        <v>5.021</v>
+      </c>
+      <c r="F508" t="n">
+        <v>5.682</v>
+      </c>
+      <c r="G508" t="n">
+        <v>6.025</v>
+      </c>
+      <c r="H508" t="n">
+        <v>6.082</v>
+      </c>
+      <c r="I508" t="n">
+        <v>6.546</v>
+      </c>
+      <c r="J508" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="K508" t="n">
+        <v>6.779</v>
+      </c>
+      <c r="L508" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="M508" t="n">
+        <v>6.811</v>
+      </c>
+      <c r="N508" t="n">
+        <v>7.014</v>
+      </c>
+      <c r="O508" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="P508" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>7.124</v>
+      </c>
+      <c r="R508" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="S508" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="T508" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="U508" t="n">
+        <v>7.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -33441,7 +33441,7 @@
         <v>44645</v>
       </c>
       <c r="B508" t="n">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="C508" t="n">
         <v>4.3</v>
@@ -33450,7 +33450,7 @@
         <v>4.474</v>
       </c>
       <c r="E508" t="n">
-        <v>5.021</v>
+        <v>5.004</v>
       </c>
       <c r="F508" t="n">
         <v>5.682</v>
@@ -33465,7 +33465,7 @@
         <v>6.546</v>
       </c>
       <c r="J508" t="n">
-        <v>6.717</v>
+        <v>6.726</v>
       </c>
       <c r="K508" t="n">
         <v>6.779</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U508"/>
+  <dimension ref="A1:U509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33501,6 +33501,71 @@
         <v>7.27</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C509" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D509" t="n">
+        <v>4.479</v>
+      </c>
+      <c r="E509" t="n">
+        <v>5.006</v>
+      </c>
+      <c r="F509" t="n">
+        <v>5.739</v>
+      </c>
+      <c r="G509" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="H509" t="n">
+        <v>6.112</v>
+      </c>
+      <c r="I509" t="n">
+        <v>6.572</v>
+      </c>
+      <c r="J509" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="K509" t="n">
+        <v>6.804</v>
+      </c>
+      <c r="L509" t="n">
+        <v>6.865</v>
+      </c>
+      <c r="M509" t="n">
+        <v>6.836</v>
+      </c>
+      <c r="N509" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="O509" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="P509" t="n">
+        <v>7.154</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="R509" t="n">
+        <v>7.169</v>
+      </c>
+      <c r="S509" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="T509" t="n">
+        <v>7.228</v>
+      </c>
+      <c r="U509" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U509"/>
+  <dimension ref="A1:U510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33506,7 +33506,7 @@
         <v>44648</v>
       </c>
       <c r="B509" t="n">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="C509" t="n">
         <v>4.25</v>
@@ -33564,6 +33564,71 @@
       </c>
       <c r="U509" t="n">
         <v>7.29</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B510" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="C510" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D510" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E510" t="n">
+        <v>5.008</v>
+      </c>
+      <c r="F510" t="n">
+        <v>5.714</v>
+      </c>
+      <c r="G510" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="H510" t="n">
+        <v>6.097</v>
+      </c>
+      <c r="I510" t="n">
+        <v>6.551</v>
+      </c>
+      <c r="J510" t="n">
+        <v>6.735</v>
+      </c>
+      <c r="K510" t="n">
+        <v>6.804</v>
+      </c>
+      <c r="L510" t="n">
+        <v>6.848</v>
+      </c>
+      <c r="M510" t="n">
+        <v>6.821</v>
+      </c>
+      <c r="N510" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="O510" t="n">
+        <v>7.045</v>
+      </c>
+      <c r="P510" t="n">
+        <v>7.138</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>7.133</v>
+      </c>
+      <c r="R510" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="S510" t="n">
+        <v>7.228</v>
+      </c>
+      <c r="T510" t="n">
+        <v>7.204</v>
+      </c>
+      <c r="U510" t="n">
+        <v>7.264</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U510"/>
+  <dimension ref="A1:U511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33571,10 +33571,10 @@
         <v>44649</v>
       </c>
       <c r="B510" t="n">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="C510" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="D510" t="n">
         <v>4.4</v>
@@ -33629,6 +33629,71 @@
       </c>
       <c r="U510" t="n">
         <v>7.264</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C511" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D511" t="n">
+        <v>4.457</v>
+      </c>
+      <c r="E511" t="n">
+        <v>4.969</v>
+      </c>
+      <c r="F511" t="n">
+        <v>5.659</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="H511" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="I511" t="n">
+        <v>6.514</v>
+      </c>
+      <c r="J511" t="n">
+        <v>6.691</v>
+      </c>
+      <c r="K511" t="n">
+        <v>6.754</v>
+      </c>
+      <c r="L511" t="n">
+        <v>6.816</v>
+      </c>
+      <c r="M511" t="n">
+        <v>6.784</v>
+      </c>
+      <c r="N511" t="n">
+        <v>6.989</v>
+      </c>
+      <c r="O511" t="n">
+        <v>7.051</v>
+      </c>
+      <c r="P511" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>7.093</v>
+      </c>
+      <c r="R511" t="n">
+        <v>7.114</v>
+      </c>
+      <c r="S511" t="n">
+        <v>7.176</v>
+      </c>
+      <c r="T511" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="U511" t="n">
+        <v>7.235</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U511"/>
+  <dimension ref="A1:U512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33696,6 +33696,71 @@
         <v>7.235</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B512" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C512" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D512" t="n">
+        <v>4.321</v>
+      </c>
+      <c r="E512" t="n">
+        <v>4.972</v>
+      </c>
+      <c r="F512" t="n">
+        <v>5.674</v>
+      </c>
+      <c r="G512" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="H512" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="I512" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="J512" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="K512" t="n">
+        <v>6.805</v>
+      </c>
+      <c r="L512" t="n">
+        <v>6.861</v>
+      </c>
+      <c r="M512" t="n">
+        <v>6.843</v>
+      </c>
+      <c r="N512" t="n">
+        <v>7.001</v>
+      </c>
+      <c r="O512" t="n">
+        <v>7.112</v>
+      </c>
+      <c r="P512" t="n">
+        <v>7.155</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="R512" t="n">
+        <v>7.161</v>
+      </c>
+      <c r="S512" t="n">
+        <v>7.229</v>
+      </c>
+      <c r="T512" t="n">
+        <v>7.187</v>
+      </c>
+      <c r="U512" t="n">
+        <v>7.265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U512"/>
+  <dimension ref="A1:U513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33761,6 +33761,71 @@
         <v>7.265</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B513" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C513" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D513" t="n">
+        <v>4.716</v>
+      </c>
+      <c r="E513" t="n">
+        <v>5.009</v>
+      </c>
+      <c r="F513" t="n">
+        <v>5.727</v>
+      </c>
+      <c r="G513" t="n">
+        <v>6.061</v>
+      </c>
+      <c r="H513" t="n">
+        <v>6.162</v>
+      </c>
+      <c r="I513" t="n">
+        <v>6.585</v>
+      </c>
+      <c r="J513" t="n">
+        <v>6.772</v>
+      </c>
+      <c r="K513" t="n">
+        <v>6.835</v>
+      </c>
+      <c r="L513" t="n">
+        <v>6.922</v>
+      </c>
+      <c r="M513" t="n">
+        <v>6.898</v>
+      </c>
+      <c r="N513" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="O513" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="P513" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>7.187</v>
+      </c>
+      <c r="R513" t="n">
+        <v>7.209</v>
+      </c>
+      <c r="S513" t="n">
+        <v>7.282</v>
+      </c>
+      <c r="T513" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="U513" t="n">
+        <v>7.317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U513"/>
+  <dimension ref="A1:U514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33826,6 +33826,71 @@
         <v>7.317</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="C514" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D514" t="n">
+        <v>4.701</v>
+      </c>
+      <c r="E514" t="n">
+        <v>5.005</v>
+      </c>
+      <c r="F514" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="G514" t="n">
+        <v>6.053</v>
+      </c>
+      <c r="H514" t="n">
+        <v>6.165</v>
+      </c>
+      <c r="I514" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="J514" t="n">
+        <v>6.781</v>
+      </c>
+      <c r="K514" t="n">
+        <v>6.845</v>
+      </c>
+      <c r="L514" t="n">
+        <v>6.929</v>
+      </c>
+      <c r="M514" t="n">
+        <v>6.899</v>
+      </c>
+      <c r="N514" t="n">
+        <v>7.058</v>
+      </c>
+      <c r="O514" t="n">
+        <v>7.189</v>
+      </c>
+      <c r="P514" t="n">
+        <v>7.206</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>7.198</v>
+      </c>
+      <c r="R514" t="n">
+        <v>7.158</v>
+      </c>
+      <c r="S514" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="T514" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="U514" t="n">
+        <v>7.306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U514"/>
+  <dimension ref="A1:U515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33891,6 +33891,71 @@
         <v>7.306</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B515" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C515" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D515" t="n">
+        <v>4.686</v>
+      </c>
+      <c r="E515" t="n">
+        <v>5.053</v>
+      </c>
+      <c r="F515" t="n">
+        <v>5.728</v>
+      </c>
+      <c r="G515" t="n">
+        <v>6.053</v>
+      </c>
+      <c r="H515" t="n">
+        <v>6.186</v>
+      </c>
+      <c r="I515" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="J515" t="n">
+        <v>6.805</v>
+      </c>
+      <c r="K515" t="n">
+        <v>6.855</v>
+      </c>
+      <c r="L515" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="M515" t="n">
+        <v>6.917</v>
+      </c>
+      <c r="N515" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="O515" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="P515" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>7.212</v>
+      </c>
+      <c r="R515" t="n">
+        <v>7.172</v>
+      </c>
+      <c r="S515" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="T515" t="n">
+        <v>7.226</v>
+      </c>
+      <c r="U515" t="n">
+        <v>7.316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U515"/>
+  <dimension ref="A1:U516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33956,6 +33956,71 @@
         <v>7.316</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B516" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C516" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D516" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E516" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F516" t="n">
+        <v>5.739</v>
+      </c>
+      <c r="G516" t="n">
+        <v>6.036</v>
+      </c>
+      <c r="H516" t="n">
+        <v>6.171</v>
+      </c>
+      <c r="I516" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="J516" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="K516" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="L516" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="M516" t="n">
+        <v>6.914</v>
+      </c>
+      <c r="N516" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="O516" t="n">
+        <v>7.159</v>
+      </c>
+      <c r="P516" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>7.195</v>
+      </c>
+      <c r="R516" t="n">
+        <v>7.224</v>
+      </c>
+      <c r="S516" t="n">
+        <v>7.314</v>
+      </c>
+      <c r="T516" t="n">
+        <v>7.224</v>
+      </c>
+      <c r="U516" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U516"/>
+  <dimension ref="A1:U517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34021,6 +34021,71 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B517" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C517" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D517" t="n">
+        <v>4.856</v>
+      </c>
+      <c r="E517" t="n">
+        <v>5.161</v>
+      </c>
+      <c r="F517" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="G517" t="n">
+        <v>6.303</v>
+      </c>
+      <c r="H517" t="n">
+        <v>6.465</v>
+      </c>
+      <c r="I517" t="n">
+        <v>6.804</v>
+      </c>
+      <c r="J517" t="n">
+        <v>6.938</v>
+      </c>
+      <c r="K517" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="L517" t="n">
+        <v>7.162</v>
+      </c>
+      <c r="M517" t="n">
+        <v>7.119</v>
+      </c>
+      <c r="N517" t="n">
+        <v>7.274</v>
+      </c>
+      <c r="O517" t="n">
+        <v>7.256</v>
+      </c>
+      <c r="P517" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="R517" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="S517" t="n">
+        <v>7.398</v>
+      </c>
+      <c r="T517" t="n">
+        <v>7.307</v>
+      </c>
+      <c r="U517" t="n">
+        <v>7.403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U517"/>
+  <dimension ref="A1:U518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34086,6 +34086,71 @@
         <v>7.403</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B518" t="n">
+        <v>4</v>
+      </c>
+      <c r="C518" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D518" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="E518" t="n">
+        <v>5.186</v>
+      </c>
+      <c r="F518" t="n">
+        <v>6.041</v>
+      </c>
+      <c r="G518" t="n">
+        <v>6.318</v>
+      </c>
+      <c r="H518" t="n">
+        <v>6.538</v>
+      </c>
+      <c r="I518" t="n">
+        <v>6.859</v>
+      </c>
+      <c r="J518" t="n">
+        <v>7.012</v>
+      </c>
+      <c r="K518" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="L518" t="n">
+        <v>7.176</v>
+      </c>
+      <c r="M518" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="N518" t="n">
+        <v>7.251</v>
+      </c>
+      <c r="O518" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="P518" t="n">
+        <v>7.364</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>7.365</v>
+      </c>
+      <c r="R518" t="n">
+        <v>7.301</v>
+      </c>
+      <c r="S518" t="n">
+        <v>7.422</v>
+      </c>
+      <c r="T518" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="U518" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U518"/>
+  <dimension ref="A1:U519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34151,6 +34151,71 @@
         <v>7.46</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C519" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D519" t="n">
+        <v>5.058</v>
+      </c>
+      <c r="E519" t="n">
+        <v>5.241</v>
+      </c>
+      <c r="F519" t="n">
+        <v>6.088</v>
+      </c>
+      <c r="G519" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="H519" t="n">
+        <v>6.596</v>
+      </c>
+      <c r="I519" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="J519" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="K519" t="n">
+        <v>7.112</v>
+      </c>
+      <c r="L519" t="n">
+        <v>7.226</v>
+      </c>
+      <c r="M519" t="n">
+        <v>7.189</v>
+      </c>
+      <c r="N519" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="O519" t="n">
+        <v>7.324</v>
+      </c>
+      <c r="P519" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>7.393</v>
+      </c>
+      <c r="R519" t="n">
+        <v>7.329</v>
+      </c>
+      <c r="S519" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="T519" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="U519" t="n">
+        <v>7.478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U519"/>
+  <dimension ref="A1:U520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34156,13 +34156,13 @@
         <v>44663</v>
       </c>
       <c r="B519" t="n">
-        <v>3.96</v>
+        <v>3.98</v>
       </c>
       <c r="C519" t="n">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="D519" t="n">
-        <v>5.058</v>
+        <v>4.891</v>
       </c>
       <c r="E519" t="n">
         <v>5.241</v>
@@ -34183,7 +34183,7 @@
         <v>7.044</v>
       </c>
       <c r="K519" t="n">
-        <v>7.112</v>
+        <v>7</v>
       </c>
       <c r="L519" t="n">
         <v>7.226</v>
@@ -34214,6 +34214,71 @@
       </c>
       <c r="U519" t="n">
         <v>7.478</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C520" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D520" t="n">
+        <v>4.986</v>
+      </c>
+      <c r="E520" t="n">
+        <v>5.226</v>
+      </c>
+      <c r="F520" t="n">
+        <v>6.185</v>
+      </c>
+      <c r="G520" t="n">
+        <v>6.497</v>
+      </c>
+      <c r="H520" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="I520" t="n">
+        <v>6.948</v>
+      </c>
+      <c r="J520" t="n">
+        <v>7.087</v>
+      </c>
+      <c r="K520" t="n">
+        <v>7.212</v>
+      </c>
+      <c r="L520" t="n">
+        <v>7.257</v>
+      </c>
+      <c r="M520" t="n">
+        <v>7.215</v>
+      </c>
+      <c r="N520" t="n">
+        <v>7.295</v>
+      </c>
+      <c r="O520" t="n">
+        <v>7.404</v>
+      </c>
+      <c r="P520" t="n">
+        <v>7.447</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>7.444</v>
+      </c>
+      <c r="R520" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="S520" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T520" t="n">
+        <v>7.416</v>
+      </c>
+      <c r="U520" t="n">
+        <v>7.521</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U520"/>
+  <dimension ref="A1:U521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34281,6 +34281,71 @@
         <v>7.521</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B521" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C521" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D521" t="n">
+        <v>5.047</v>
+      </c>
+      <c r="E521" t="n">
+        <v>5.404</v>
+      </c>
+      <c r="F521" t="n">
+        <v>6.143</v>
+      </c>
+      <c r="G521" t="n">
+        <v>6.418</v>
+      </c>
+      <c r="H521" t="n">
+        <v>6.594</v>
+      </c>
+      <c r="I521" t="n">
+        <v>6.901</v>
+      </c>
+      <c r="J521" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="K521" t="n">
+        <v>7.156</v>
+      </c>
+      <c r="L521" t="n">
+        <v>7.192</v>
+      </c>
+      <c r="M521" t="n">
+        <v>7.153</v>
+      </c>
+      <c r="N521" t="n">
+        <v>7.299</v>
+      </c>
+      <c r="O521" t="n">
+        <v>7.364</v>
+      </c>
+      <c r="P521" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="R521" t="n">
+        <v>7.423</v>
+      </c>
+      <c r="S521" t="n">
+        <v>7.433</v>
+      </c>
+      <c r="T521" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="U521" t="n">
+        <v>7.496</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U521"/>
+  <dimension ref="A1:U522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34346,6 +34346,71 @@
         <v>7.496</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B522" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C522" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D522" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E522" t="n">
+        <v>5.424</v>
+      </c>
+      <c r="F522" t="n">
+        <v>6.133</v>
+      </c>
+      <c r="G522" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H522" t="n">
+        <v>6.589</v>
+      </c>
+      <c r="I522" t="n">
+        <v>6.901</v>
+      </c>
+      <c r="J522" t="n">
+        <v>7.027</v>
+      </c>
+      <c r="K522" t="n">
+        <v>7.104</v>
+      </c>
+      <c r="L522" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="M522" t="n">
+        <v>7.151</v>
+      </c>
+      <c r="N522" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="O522" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="P522" t="n">
+        <v>7.358</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="R522" t="n">
+        <v>7.384</v>
+      </c>
+      <c r="S522" t="n">
+        <v>7.381</v>
+      </c>
+      <c r="T522" t="n">
+        <v>7.355</v>
+      </c>
+      <c r="U522" t="n">
+        <v>7.468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U522"/>
+  <dimension ref="A1:U523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34354,7 +34354,7 @@
         <v>3.99</v>
       </c>
       <c r="C522" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="D522" t="n">
         <v>5.08</v>
@@ -34409,6 +34409,71 @@
       </c>
       <c r="U522" t="n">
         <v>7.468</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C523" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D523" t="n">
+        <v>5.103</v>
+      </c>
+      <c r="E523" t="n">
+        <v>5.422</v>
+      </c>
+      <c r="F523" t="n">
+        <v>6.123</v>
+      </c>
+      <c r="G523" t="n">
+        <v>6.374</v>
+      </c>
+      <c r="H523" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="I523" t="n">
+        <v>6.866</v>
+      </c>
+      <c r="J523" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="K523" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="L523" t="n">
+        <v>7.133</v>
+      </c>
+      <c r="M523" t="n">
+        <v>7.105</v>
+      </c>
+      <c r="N523" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="O523" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="P523" t="n">
+        <v>7.291</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>7.288</v>
+      </c>
+      <c r="R523" t="n">
+        <v>7.327</v>
+      </c>
+      <c r="S523" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="T523" t="n">
+        <v>7.322</v>
+      </c>
+      <c r="U523" t="n">
+        <v>7.425</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U523"/>
+  <dimension ref="A1:U524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34476,6 +34476,71 @@
         <v>7.425</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B524" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C524" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D524" t="n">
+        <v>5.117</v>
+      </c>
+      <c r="E524" t="n">
+        <v>5.448</v>
+      </c>
+      <c r="F524" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G524" t="n">
+        <v>6.431</v>
+      </c>
+      <c r="H524" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="I524" t="n">
+        <v>6.903</v>
+      </c>
+      <c r="J524" t="n">
+        <v>7.049</v>
+      </c>
+      <c r="K524" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="L524" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="M524" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="N524" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="O524" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="P524" t="n">
+        <v>7.333</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>7.322</v>
+      </c>
+      <c r="R524" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="S524" t="n">
+        <v>7.482</v>
+      </c>
+      <c r="T524" t="n">
+        <v>7.332</v>
+      </c>
+      <c r="U524" t="n">
+        <v>7.459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U524"/>
+  <dimension ref="A1:U525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34541,6 +34541,71 @@
         <v>7.459</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B525" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C525" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D525" t="n">
+        <v>4.607</v>
+      </c>
+      <c r="E525" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F525" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="G525" t="n">
+        <v>6.464</v>
+      </c>
+      <c r="H525" t="n">
+        <v>6.652</v>
+      </c>
+      <c r="I525" t="n">
+        <v>6.919</v>
+      </c>
+      <c r="J525" t="n">
+        <v>7.068</v>
+      </c>
+      <c r="K525" t="n">
+        <v>7.159</v>
+      </c>
+      <c r="L525" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M525" t="n">
+        <v>7.167</v>
+      </c>
+      <c r="N525" t="n">
+        <v>7.291</v>
+      </c>
+      <c r="O525" t="n">
+        <v>7.348</v>
+      </c>
+      <c r="P525" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>7.358</v>
+      </c>
+      <c r="R525" t="n">
+        <v>7.397</v>
+      </c>
+      <c r="S525" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="T525" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="U525" t="n">
+        <v>7.458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -34546,7 +34546,7 @@
         <v>44673</v>
       </c>
       <c r="B525" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="C525" t="n">
         <v>4.39</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U525"/>
+  <dimension ref="A1:U526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34606,6 +34606,71 @@
         <v>7.458</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B526" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C526" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D526" t="n">
+        <v>4.829</v>
+      </c>
+      <c r="E526" t="n">
+        <v>5.449</v>
+      </c>
+      <c r="F526" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="G526" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="H526" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="I526" t="n">
+        <v>6.849</v>
+      </c>
+      <c r="J526" t="n">
+        <v>7.007</v>
+      </c>
+      <c r="K526" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="L526" t="n">
+        <v>7.076</v>
+      </c>
+      <c r="M526" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="N526" t="n">
+        <v>7.166</v>
+      </c>
+      <c r="O526" t="n">
+        <v>7.263</v>
+      </c>
+      <c r="P526" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="R526" t="n">
+        <v>7.286</v>
+      </c>
+      <c r="S526" t="n">
+        <v>7.312</v>
+      </c>
+      <c r="T526" t="n">
+        <v>7.308</v>
+      </c>
+      <c r="U526" t="n">
+        <v>7.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U526"/>
+  <dimension ref="A1:U527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34671,6 +34671,71 @@
         <v>7.373</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B527" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C527" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D527" t="n">
+        <v>5.073</v>
+      </c>
+      <c r="E527" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F527" t="n">
+        <v>6.139</v>
+      </c>
+      <c r="G527" t="n">
+        <v>6.394</v>
+      </c>
+      <c r="H527" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="I527" t="n">
+        <v>6.866</v>
+      </c>
+      <c r="J527" t="n">
+        <v>7.009</v>
+      </c>
+      <c r="K527" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="L527" t="n">
+        <v>7.097</v>
+      </c>
+      <c r="M527" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="N527" t="n">
+        <v>7.178</v>
+      </c>
+      <c r="O527" t="n">
+        <v>7.268</v>
+      </c>
+      <c r="P527" t="n">
+        <v>7.279</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>7.267</v>
+      </c>
+      <c r="R527" t="n">
+        <v>7.296</v>
+      </c>
+      <c r="S527" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="T527" t="n">
+        <v>7.327</v>
+      </c>
+      <c r="U527" t="n">
+        <v>7.391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U527"/>
+  <dimension ref="A1:U528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34679,7 +34679,7 @@
         <v>3.98</v>
       </c>
       <c r="C527" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D527" t="n">
         <v>5.073</v>
@@ -34700,7 +34700,7 @@
         <v>6.866</v>
       </c>
       <c r="J527" t="n">
-        <v>7.009</v>
+        <v>7.03</v>
       </c>
       <c r="K527" t="n">
         <v>7.044</v>
@@ -34734,6 +34734,71 @@
       </c>
       <c r="U527" t="n">
         <v>7.391</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B528" t="n">
+        <v>4</v>
+      </c>
+      <c r="C528" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D528" t="n">
+        <v>5.058</v>
+      </c>
+      <c r="E528" t="n">
+        <v>5.473</v>
+      </c>
+      <c r="F528" t="n">
+        <v>6.143</v>
+      </c>
+      <c r="G528" t="n">
+        <v>6.433</v>
+      </c>
+      <c r="H528" t="n">
+        <v>6.607</v>
+      </c>
+      <c r="I528" t="n">
+        <v>6.866</v>
+      </c>
+      <c r="J528" t="n">
+        <v>7.026</v>
+      </c>
+      <c r="K528" t="n">
+        <v>7.058</v>
+      </c>
+      <c r="L528" t="n">
+        <v>7.115</v>
+      </c>
+      <c r="M528" t="n">
+        <v>7.083</v>
+      </c>
+      <c r="N528" t="n">
+        <v>7.206</v>
+      </c>
+      <c r="O528" t="n">
+        <v>7.299</v>
+      </c>
+      <c r="P528" t="n">
+        <v>7.299</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>7.295</v>
+      </c>
+      <c r="R528" t="n">
+        <v>7.282</v>
+      </c>
+      <c r="S528" t="n">
+        <v>7.305</v>
+      </c>
+      <c r="T528" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="U528" t="n">
+        <v>7.373</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U528"/>
+  <dimension ref="A1:U529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34801,6 +34801,71 @@
         <v>7.373</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B529" t="n">
+        <v>4</v>
+      </c>
+      <c r="C529" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D529" t="n">
+        <v>4.639</v>
+      </c>
+      <c r="E529" t="n">
+        <v>5.494</v>
+      </c>
+      <c r="F529" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="G529" t="n">
+        <v>6.487</v>
+      </c>
+      <c r="H529" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I529" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="J529" t="n">
+        <v>7.067</v>
+      </c>
+      <c r="K529" t="n">
+        <v>7.114</v>
+      </c>
+      <c r="L529" t="n">
+        <v>7.181</v>
+      </c>
+      <c r="M529" t="n">
+        <v>7.155</v>
+      </c>
+      <c r="N529" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="O529" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="P529" t="n">
+        <v>7.347</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>7.331</v>
+      </c>
+      <c r="R529" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="S529" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="T529" t="n">
+        <v>7.363</v>
+      </c>
+      <c r="U529" t="n">
+        <v>7.424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U529"/>
+  <dimension ref="A1:U530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34611,7 +34611,7 @@
         <v>44676</v>
       </c>
       <c r="B526" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="C526" t="n">
         <v>4.39</v>
@@ -34854,7 +34854,7 @@
         <v>7.331</v>
       </c>
       <c r="R529" t="n">
-        <v>7.35</v>
+        <v>7.307</v>
       </c>
       <c r="S529" t="n">
         <v>7.375</v>
@@ -34863,7 +34863,72 @@
         <v>7.363</v>
       </c>
       <c r="U529" t="n">
-        <v>7.424</v>
+        <v>7.408</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B530" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C530" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D530" t="n">
+        <v>4.814</v>
+      </c>
+      <c r="E530" t="n">
+        <v>5.492</v>
+      </c>
+      <c r="F530" t="n">
+        <v>6.219</v>
+      </c>
+      <c r="G530" t="n">
+        <v>6.503</v>
+      </c>
+      <c r="H530" t="n">
+        <v>6.683</v>
+      </c>
+      <c r="I530" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="J530" t="n">
+        <v>7.039</v>
+      </c>
+      <c r="K530" t="n">
+        <v>7.097</v>
+      </c>
+      <c r="L530" t="n">
+        <v>7.178</v>
+      </c>
+      <c r="M530" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="N530" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="O530" t="n">
+        <v>7.311</v>
+      </c>
+      <c r="P530" t="n">
+        <v>7.334</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>7.326</v>
+      </c>
+      <c r="R530" t="n">
+        <v>7.364</v>
+      </c>
+      <c r="S530" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="T530" t="n">
+        <v>7.361</v>
+      </c>
+      <c r="U530" t="n">
+        <v>7.421</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -34706,7 +34706,7 @@
         <v>7.044</v>
       </c>
       <c r="L527" t="n">
-        <v>7.097</v>
+        <v>7.092</v>
       </c>
       <c r="M527" t="n">
         <v>7.053</v>
@@ -34806,7 +34806,7 @@
         <v>44679</v>
       </c>
       <c r="B529" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="C529" t="n">
         <v>4.41</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U530"/>
+  <dimension ref="A1:U531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34931,6 +34931,71 @@
         <v>7.421</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B531" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C531" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D531" t="n">
+        <v>5.041</v>
+      </c>
+      <c r="E531" t="n">
+        <v>5.511</v>
+      </c>
+      <c r="F531" t="n">
+        <v>6.202</v>
+      </c>
+      <c r="G531" t="n">
+        <v>6.486</v>
+      </c>
+      <c r="H531" t="n">
+        <v>6.823</v>
+      </c>
+      <c r="I531" t="n">
+        <v>6.927</v>
+      </c>
+      <c r="J531" t="n">
+        <v>7.049</v>
+      </c>
+      <c r="K531" t="n">
+        <v>7.081</v>
+      </c>
+      <c r="L531" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="M531" t="n">
+        <v>7.119</v>
+      </c>
+      <c r="N531" t="n">
+        <v>7.262</v>
+      </c>
+      <c r="O531" t="n">
+        <v>7.301</v>
+      </c>
+      <c r="P531" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>7.316</v>
+      </c>
+      <c r="R531" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="S531" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="T531" t="n">
+        <v>7.356</v>
+      </c>
+      <c r="U531" t="n">
+        <v>7.415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -34939,7 +34939,7 @@
         <v>4.03</v>
       </c>
       <c r="C531" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="D531" t="n">
         <v>5.041</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U531"/>
+  <dimension ref="A1:U532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34996,6 +34996,71 @@
         <v>7.415</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B532" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C532" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D532" t="n">
+        <v>5.304</v>
+      </c>
+      <c r="E532" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="F532" t="n">
+        <v>6.313</v>
+      </c>
+      <c r="G532" t="n">
+        <v>6.955</v>
+      </c>
+      <c r="H532" t="n">
+        <v>7.137</v>
+      </c>
+      <c r="I532" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="J532" t="n">
+        <v>7.285</v>
+      </c>
+      <c r="K532" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="L532" t="n">
+        <v>7.408</v>
+      </c>
+      <c r="M532" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="N532" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="O532" t="n">
+        <v>7.485</v>
+      </c>
+      <c r="P532" t="n">
+        <v>7.543</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="R532" t="n">
+        <v>7.493</v>
+      </c>
+      <c r="S532" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="T532" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="U532" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U532"/>
+  <dimension ref="A1:U533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35061,6 +35061,71 @@
         <v>7.6</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B533" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C533" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="D533" t="n">
+        <v>5.276</v>
+      </c>
+      <c r="E533" t="n">
+        <v>5.656</v>
+      </c>
+      <c r="F533" t="n">
+        <v>6.738</v>
+      </c>
+      <c r="G533" t="n">
+        <v>7.023</v>
+      </c>
+      <c r="H533" t="n">
+        <v>7.181</v>
+      </c>
+      <c r="I533" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="J533" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="K533" t="n">
+        <v>7.343</v>
+      </c>
+      <c r="L533" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="M533" t="n">
+        <v>7.403</v>
+      </c>
+      <c r="N533" t="n">
+        <v>7.554</v>
+      </c>
+      <c r="O533" t="n">
+        <v>7.523</v>
+      </c>
+      <c r="P533" t="n">
+        <v>7.593</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>7.586</v>
+      </c>
+      <c r="R533" t="n">
+        <v>7.593</v>
+      </c>
+      <c r="S533" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="T533" t="n">
+        <v>7.578</v>
+      </c>
+      <c r="U533" t="n">
+        <v>7.654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U533"/>
+  <dimension ref="A1:U534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35126,6 +35126,71 @@
         <v>7.654</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B534" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C534" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D534" t="n">
+        <v>5.487</v>
+      </c>
+      <c r="E534" t="n">
+        <v>5.855</v>
+      </c>
+      <c r="F534" t="n">
+        <v>6.932</v>
+      </c>
+      <c r="G534" t="n">
+        <v>7.187</v>
+      </c>
+      <c r="H534" t="n">
+        <v>7.273</v>
+      </c>
+      <c r="I534" t="n">
+        <v>7.309</v>
+      </c>
+      <c r="J534" t="n">
+        <v>7.332</v>
+      </c>
+      <c r="K534" t="n">
+        <v>7.396</v>
+      </c>
+      <c r="L534" t="n">
+        <v>7.482</v>
+      </c>
+      <c r="M534" t="n">
+        <v>7.451</v>
+      </c>
+      <c r="N534" t="n">
+        <v>7.612</v>
+      </c>
+      <c r="O534" t="n">
+        <v>7.561</v>
+      </c>
+      <c r="P534" t="n">
+        <v>7.632</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="R534" t="n">
+        <v>7.679</v>
+      </c>
+      <c r="S534" t="n">
+        <v>7.645</v>
+      </c>
+      <c r="T534" t="n">
+        <v>7.654</v>
+      </c>
+      <c r="U534" t="n">
+        <v>7.705</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U534"/>
+  <dimension ref="A1:U535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35191,6 +35191,71 @@
         <v>7.705</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B535" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C535" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D535" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E535" t="n">
+        <v>6.282</v>
+      </c>
+      <c r="F535" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="G535" t="n">
+        <v>7.173</v>
+      </c>
+      <c r="H535" t="n">
+        <v>7.273</v>
+      </c>
+      <c r="I535" t="n">
+        <v>7.311</v>
+      </c>
+      <c r="J535" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="K535" t="n">
+        <v>7.423</v>
+      </c>
+      <c r="L535" t="n">
+        <v>7.495</v>
+      </c>
+      <c r="M535" t="n">
+        <v>7.465</v>
+      </c>
+      <c r="N535" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="O535" t="n">
+        <v>7.587</v>
+      </c>
+      <c r="P535" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="R535" t="n">
+        <v>7.684</v>
+      </c>
+      <c r="S535" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="T535" t="n">
+        <v>7.654</v>
+      </c>
+      <c r="U535" t="n">
+        <v>7.724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U535"/>
+  <dimension ref="A1:U536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35007,7 +35007,7 @@
         <v>4.57</v>
       </c>
       <c r="D532" t="n">
-        <v>5.304</v>
+        <v>5.045</v>
       </c>
       <c r="E532" t="n">
         <v>5.52</v>
@@ -35205,7 +35205,7 @@
         <v>5.47</v>
       </c>
       <c r="E535" t="n">
-        <v>6.282</v>
+        <v>6.313</v>
       </c>
       <c r="F535" t="n">
         <v>6.93</v>
@@ -35254,6 +35254,71 @@
       </c>
       <c r="U535" t="n">
         <v>7.724</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B536" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C536" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D536" t="n">
+        <v>5.774</v>
+      </c>
+      <c r="E536" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="F536" t="n">
+        <v>6.823</v>
+      </c>
+      <c r="G536" t="n">
+        <v>7.005</v>
+      </c>
+      <c r="H536" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="I536" t="n">
+        <v>7.215</v>
+      </c>
+      <c r="J536" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="K536" t="n">
+        <v>7.273</v>
+      </c>
+      <c r="L536" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="M536" t="n">
+        <v>7.301</v>
+      </c>
+      <c r="N536" t="n">
+        <v>7.485</v>
+      </c>
+      <c r="O536" t="n">
+        <v>7.454</v>
+      </c>
+      <c r="P536" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>7.499</v>
+      </c>
+      <c r="R536" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="S536" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="T536" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="U536" t="n">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U536"/>
+  <dimension ref="A1:U537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35261,13 +35261,13 @@
         <v>44691</v>
       </c>
       <c r="B536" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C536" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="D536" t="n">
-        <v>5.774</v>
+        <v>5.465</v>
       </c>
       <c r="E536" t="n">
         <v>6.281</v>
@@ -35319,6 +35319,71 @@
       </c>
       <c r="U536" t="n">
         <v>7.6</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B537" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C537" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="D537" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E537" t="n">
+        <v>6.218</v>
+      </c>
+      <c r="F537" t="n">
+        <v>6.783</v>
+      </c>
+      <c r="G537" t="n">
+        <v>6.927</v>
+      </c>
+      <c r="H537" t="n">
+        <v>7.103</v>
+      </c>
+      <c r="I537" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="J537" t="n">
+        <v>7.238</v>
+      </c>
+      <c r="K537" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="L537" t="n">
+        <v>7.263</v>
+      </c>
+      <c r="M537" t="n">
+        <v>7.215</v>
+      </c>
+      <c r="N537" t="n">
+        <v>7.409</v>
+      </c>
+      <c r="O537" t="n">
+        <v>7.404</v>
+      </c>
+      <c r="P537" t="n">
+        <v>7.474</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>7.431</v>
+      </c>
+      <c r="R537" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="S537" t="n">
+        <v>7.499</v>
+      </c>
+      <c r="T537" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="U537" t="n">
+        <v>7.618</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U537"/>
+  <dimension ref="A1:U538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35386,6 +35386,71 @@
         <v>7.618</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B538" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="C538" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D538" t="n">
+        <v>5.476</v>
+      </c>
+      <c r="E538" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="F538" t="n">
+        <v>6.821</v>
+      </c>
+      <c r="G538" t="n">
+        <v>6.989</v>
+      </c>
+      <c r="H538" t="n">
+        <v>7.127</v>
+      </c>
+      <c r="I538" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="J538" t="n">
+        <v>7.173</v>
+      </c>
+      <c r="K538" t="n">
+        <v>7.205</v>
+      </c>
+      <c r="L538" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="M538" t="n">
+        <v>7.244</v>
+      </c>
+      <c r="N538" t="n">
+        <v>7.417</v>
+      </c>
+      <c r="O538" t="n">
+        <v>7.331</v>
+      </c>
+      <c r="P538" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="R538" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="S538" t="n">
+        <v>7.511</v>
+      </c>
+      <c r="T538" t="n">
+        <v>7.417</v>
+      </c>
+      <c r="U538" t="n">
+        <v>7.551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U538"/>
+  <dimension ref="A1:U539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35451,6 +35451,71 @@
         <v>7.551</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B539" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C539" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D539" t="n">
+        <v>5.711</v>
+      </c>
+      <c r="E539" t="n">
+        <v>6.097</v>
+      </c>
+      <c r="F539" t="n">
+        <v>6.812</v>
+      </c>
+      <c r="G539" t="n">
+        <v>6.992</v>
+      </c>
+      <c r="H539" t="n">
+        <v>7.072</v>
+      </c>
+      <c r="I539" t="n">
+        <v>7.176</v>
+      </c>
+      <c r="J539" t="n">
+        <v>7.206</v>
+      </c>
+      <c r="K539" t="n">
+        <v>7.239</v>
+      </c>
+      <c r="L539" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="M539" t="n">
+        <v>7.318</v>
+      </c>
+      <c r="N539" t="n">
+        <v>7.489</v>
+      </c>
+      <c r="O539" t="n">
+        <v>7.395</v>
+      </c>
+      <c r="P539" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>7.475</v>
+      </c>
+      <c r="R539" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="S539" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T539" t="n">
+        <v>7.481</v>
+      </c>
+      <c r="U539" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U539"/>
+  <dimension ref="A1:U540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35516,6 +35516,71 @@
         <v>7.57</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B540" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C540" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="D540" t="n">
+        <v>5.762</v>
+      </c>
+      <c r="E540" t="n">
+        <v>6.345</v>
+      </c>
+      <c r="F540" t="n">
+        <v>6.874</v>
+      </c>
+      <c r="G540" t="n">
+        <v>7.042</v>
+      </c>
+      <c r="H540" t="n">
+        <v>7.165</v>
+      </c>
+      <c r="I540" t="n">
+        <v>7.202</v>
+      </c>
+      <c r="J540" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="K540" t="n">
+        <v>7.283</v>
+      </c>
+      <c r="L540" t="n">
+        <v>7.385</v>
+      </c>
+      <c r="M540" t="n">
+        <v>7.366</v>
+      </c>
+      <c r="N540" t="n">
+        <v>7.532</v>
+      </c>
+      <c r="O540" t="n">
+        <v>7.442</v>
+      </c>
+      <c r="P540" t="n">
+        <v>7.522</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>7.521</v>
+      </c>
+      <c r="R540" t="n">
+        <v>7.581</v>
+      </c>
+      <c r="S540" t="n">
+        <v>7.546</v>
+      </c>
+      <c r="T540" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="U540" t="n">
+        <v>7.591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U540"/>
+  <dimension ref="A1:U541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35581,6 +35581,71 @@
         <v>7.591</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B541" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C541" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D541" t="n">
+        <v>5.825</v>
+      </c>
+      <c r="E541" t="n">
+        <v>6.356</v>
+      </c>
+      <c r="F541" t="n">
+        <v>6.868</v>
+      </c>
+      <c r="G541" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="H541" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I541" t="n">
+        <v>7.185</v>
+      </c>
+      <c r="J541" t="n">
+        <v>7.238</v>
+      </c>
+      <c r="K541" t="n">
+        <v>7.278</v>
+      </c>
+      <c r="L541" t="n">
+        <v>7.366</v>
+      </c>
+      <c r="M541" t="n">
+        <v>7.355</v>
+      </c>
+      <c r="N541" t="n">
+        <v>7.455</v>
+      </c>
+      <c r="O541" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="P541" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="R541" t="n">
+        <v>7.569</v>
+      </c>
+      <c r="S541" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="T541" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="U541" t="n">
+        <v>7.595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U541"/>
+  <dimension ref="A1:U542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35646,6 +35646,71 @@
         <v>7.595</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B542" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C542" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D542" t="n">
+        <v>5.786</v>
+      </c>
+      <c r="E542" t="n">
+        <v>6.323</v>
+      </c>
+      <c r="F542" t="n">
+        <v>6.892</v>
+      </c>
+      <c r="G542" t="n">
+        <v>7.013</v>
+      </c>
+      <c r="H542" t="n">
+        <v>7.162</v>
+      </c>
+      <c r="I542" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="J542" t="n">
+        <v>7.219</v>
+      </c>
+      <c r="K542" t="n">
+        <v>7.281</v>
+      </c>
+      <c r="L542" t="n">
+        <v>7.339</v>
+      </c>
+      <c r="M542" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="N542" t="n">
+        <v>7.444</v>
+      </c>
+      <c r="O542" t="n">
+        <v>7.447</v>
+      </c>
+      <c r="P542" t="n">
+        <v>7.496</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="R542" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="S542" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="T542" t="n">
+        <v>7.514</v>
+      </c>
+      <c r="U542" t="n">
+        <v>7.623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U542"/>
+  <dimension ref="A1:U543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35589,7 +35589,7 @@
         <v>4.89</v>
       </c>
       <c r="C541" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="D541" t="n">
         <v>5.825</v>
@@ -35651,7 +35651,7 @@
         <v>44700</v>
       </c>
       <c r="B542" t="n">
-        <v>4.89</v>
+        <v>4.91</v>
       </c>
       <c r="C542" t="n">
         <v>5.42</v>
@@ -35709,6 +35709,71 @@
       </c>
       <c r="U542" t="n">
         <v>7.623</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B543" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="C543" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D543" t="n">
+        <v>5.966</v>
+      </c>
+      <c r="E543" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="F543" t="n">
+        <v>6.949</v>
+      </c>
+      <c r="G543" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="H543" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="I543" t="n">
+        <v>7.233</v>
+      </c>
+      <c r="J543" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="K543" t="n">
+        <v>7.293</v>
+      </c>
+      <c r="L543" t="n">
+        <v>7.369</v>
+      </c>
+      <c r="M543" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="N543" t="n">
+        <v>7.502</v>
+      </c>
+      <c r="O543" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="P543" t="n">
+        <v>7.514</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>7.532</v>
+      </c>
+      <c r="R543" t="n">
+        <v>7.591</v>
+      </c>
+      <c r="S543" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="T543" t="n">
+        <v>7.542</v>
+      </c>
+      <c r="U543" t="n">
+        <v>7.627</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -35722,10 +35722,10 @@
         <v>5.44</v>
       </c>
       <c r="D543" t="n">
-        <v>5.966</v>
+        <v>5.771</v>
       </c>
       <c r="E543" t="n">
-        <v>6.344</v>
+        <v>6.356</v>
       </c>
       <c r="F543" t="n">
         <v>6.949</v>
@@ -35752,7 +35752,7 @@
         <v>7.359</v>
       </c>
       <c r="N543" t="n">
-        <v>7.502</v>
+        <v>7.462</v>
       </c>
       <c r="O543" t="n">
         <v>7.479</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U543"/>
+  <dimension ref="A1:U544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35776,6 +35776,71 @@
         <v>7.627</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B544" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="C544" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D544" t="n">
+        <v>5.812</v>
+      </c>
+      <c r="E544" t="n">
+        <v>6.323</v>
+      </c>
+      <c r="F544" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="G544" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="H544" t="n">
+        <v>7.158</v>
+      </c>
+      <c r="I544" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="J544" t="n">
+        <v>7.238</v>
+      </c>
+      <c r="K544" t="n">
+        <v>7.293</v>
+      </c>
+      <c r="L544" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M544" t="n">
+        <v>7.386</v>
+      </c>
+      <c r="N544" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="O544" t="n">
+        <v>7.485</v>
+      </c>
+      <c r="P544" t="n">
+        <v>7.578</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>7.562</v>
+      </c>
+      <c r="R544" t="n">
+        <v>7.621</v>
+      </c>
+      <c r="S544" t="n">
+        <v>7.587</v>
+      </c>
+      <c r="T544" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="U544" t="n">
+        <v>7.637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U544"/>
+  <dimension ref="A1:U545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35841,6 +35841,71 @@
         <v>7.637</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B545" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="C545" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D545" t="n">
+        <v>5.831</v>
+      </c>
+      <c r="E545" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F545" t="n">
+        <v>6.839</v>
+      </c>
+      <c r="G545" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="H545" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="I545" t="n">
+        <v>7.168</v>
+      </c>
+      <c r="J545" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="K545" t="n">
+        <v>7.284</v>
+      </c>
+      <c r="L545" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="M545" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="N545" t="n">
+        <v>7.443</v>
+      </c>
+      <c r="O545" t="n">
+        <v>7.474</v>
+      </c>
+      <c r="P545" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="R545" t="n">
+        <v>7.598</v>
+      </c>
+      <c r="S545" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="T545" t="n">
+        <v>7.559</v>
+      </c>
+      <c r="U545" t="n">
+        <v>7.632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U545"/>
+  <dimension ref="A1:U546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35906,6 +35906,71 @@
         <v>7.632</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B546" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C546" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D546" t="n">
+        <v>5.849</v>
+      </c>
+      <c r="E546" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="F546" t="n">
+        <v>6.813</v>
+      </c>
+      <c r="G546" t="n">
+        <v>6.913</v>
+      </c>
+      <c r="H546" t="n">
+        <v>7.104</v>
+      </c>
+      <c r="I546" t="n">
+        <v>7.137</v>
+      </c>
+      <c r="J546" t="n">
+        <v>7.163</v>
+      </c>
+      <c r="K546" t="n">
+        <v>7.237</v>
+      </c>
+      <c r="L546" t="n">
+        <v>7.331</v>
+      </c>
+      <c r="M546" t="n">
+        <v>7.305</v>
+      </c>
+      <c r="N546" t="n">
+        <v>7.435</v>
+      </c>
+      <c r="O546" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="P546" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="R546" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="S546" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="T546" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="U546" t="n">
+        <v>7.614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U546"/>
+  <dimension ref="A1:U547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35920,7 +35920,7 @@
         <v>5.849</v>
       </c>
       <c r="E546" t="n">
-        <v>6.314</v>
+        <v>6.32</v>
       </c>
       <c r="F546" t="n">
         <v>6.813</v>
@@ -35969,6 +35969,71 @@
       </c>
       <c r="U546" t="n">
         <v>7.614</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B547" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="C547" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="D547" t="n">
+        <v>5.867</v>
+      </c>
+      <c r="E547" t="n">
+        <v>6.287</v>
+      </c>
+      <c r="F547" t="n">
+        <v>6.804</v>
+      </c>
+      <c r="G547" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="H547" t="n">
+        <v>7.104</v>
+      </c>
+      <c r="I547" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="J547" t="n">
+        <v>7.156</v>
+      </c>
+      <c r="K547" t="n">
+        <v>7.205</v>
+      </c>
+      <c r="L547" t="n">
+        <v>7.307</v>
+      </c>
+      <c r="M547" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="N547" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="O547" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="P547" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>7.482</v>
+      </c>
+      <c r="R547" t="n">
+        <v>7.542</v>
+      </c>
+      <c r="S547" t="n">
+        <v>7.507</v>
+      </c>
+      <c r="T547" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="U547" t="n">
+        <v>7.605</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U547"/>
+  <dimension ref="A1:U548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35976,7 +35976,7 @@
         <v>44707</v>
       </c>
       <c r="B547" t="n">
-        <v>4.86</v>
+        <v>4.89</v>
       </c>
       <c r="C547" t="n">
         <v>5.43</v>
@@ -36034,6 +36034,71 @@
       </c>
       <c r="U547" t="n">
         <v>7.605</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B548" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C548" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D548" t="n">
+        <v>5.958</v>
+      </c>
+      <c r="E548" t="n">
+        <v>6.321</v>
+      </c>
+      <c r="F548" t="n">
+        <v>6.857</v>
+      </c>
+      <c r="G548" t="n">
+        <v>7.006</v>
+      </c>
+      <c r="H548" t="n">
+        <v>7.141</v>
+      </c>
+      <c r="I548" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="J548" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="K548" t="n">
+        <v>7.301</v>
+      </c>
+      <c r="L548" t="n">
+        <v>7.358</v>
+      </c>
+      <c r="M548" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="N548" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="O548" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="P548" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="R548" t="n">
+        <v>7.577</v>
+      </c>
+      <c r="S548" t="n">
+        <v>7.543</v>
+      </c>
+      <c r="T548" t="n">
+        <v>7.565</v>
+      </c>
+      <c r="U548" t="n">
+        <v>7.629</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -36041,13 +36041,13 @@
         <v>44708</v>
       </c>
       <c r="B548" t="n">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
       <c r="C548" t="n">
         <v>5.47</v>
       </c>
       <c r="D548" t="n">
-        <v>5.958</v>
+        <v>5.912</v>
       </c>
       <c r="E548" t="n">
         <v>6.321</v>
@@ -36068,7 +36068,7 @@
         <v>7.231</v>
       </c>
       <c r="K548" t="n">
-        <v>7.301</v>
+        <v>7.259</v>
       </c>
       <c r="L548" t="n">
         <v>7.358</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U548"/>
+  <dimension ref="A1:U549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36101,6 +36101,71 @@
         <v>7.629</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B549" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C549" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="D549" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E549" t="n">
+        <v>6.359</v>
+      </c>
+      <c r="F549" t="n">
+        <v>6.922</v>
+      </c>
+      <c r="G549" t="n">
+        <v>7.052</v>
+      </c>
+      <c r="H549" t="n">
+        <v>7.171</v>
+      </c>
+      <c r="I549" t="n">
+        <v>7.216</v>
+      </c>
+      <c r="J549" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="K549" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="L549" t="n">
+        <v>7.406</v>
+      </c>
+      <c r="M549" t="n">
+        <v>7.409</v>
+      </c>
+      <c r="N549" t="n">
+        <v>7.531</v>
+      </c>
+      <c r="O549" t="n">
+        <v>7.526</v>
+      </c>
+      <c r="P549" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>7.569</v>
+      </c>
+      <c r="R549" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="S549" t="n">
+        <v>7.594</v>
+      </c>
+      <c r="T549" t="n">
+        <v>7.582</v>
+      </c>
+      <c r="U549" t="n">
+        <v>7.655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U549"/>
+  <dimension ref="A1:U550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36166,6 +36166,71 @@
         <v>7.655</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B550" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="C550" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D550" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="E550" t="n">
+        <v>6.377</v>
+      </c>
+      <c r="F550" t="n">
+        <v>6.935</v>
+      </c>
+      <c r="G550" t="n">
+        <v>7.068</v>
+      </c>
+      <c r="H550" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="I550" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="J550" t="n">
+        <v>7.297</v>
+      </c>
+      <c r="K550" t="n">
+        <v>7.312</v>
+      </c>
+      <c r="L550" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="M550" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="N550" t="n">
+        <v>7.545</v>
+      </c>
+      <c r="O550" t="n">
+        <v>7.542</v>
+      </c>
+      <c r="P550" t="n">
+        <v>7.579</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>7.578</v>
+      </c>
+      <c r="R550" t="n">
+        <v>7.637</v>
+      </c>
+      <c r="S550" t="n">
+        <v>7.603</v>
+      </c>
+      <c r="T550" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="U550" t="n">
+        <v>7.669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U550"/>
+  <dimension ref="A1:U552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36171,10 +36171,10 @@
         <v>44712</v>
       </c>
       <c r="B550" t="n">
-        <v>4.92</v>
+        <v>4.91</v>
       </c>
       <c r="C550" t="n">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="D550" t="n">
         <v>6.013</v>
@@ -36229,6 +36229,136 @@
       </c>
       <c r="U550" t="n">
         <v>7.669</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B551" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C551" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D551" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="E551" t="n">
+        <v>6.407</v>
+      </c>
+      <c r="F551" t="n">
+        <v>6.925</v>
+      </c>
+      <c r="G551" t="n">
+        <v>7.141</v>
+      </c>
+      <c r="H551" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="I551" t="n">
+        <v>7.267</v>
+      </c>
+      <c r="J551" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K551" t="n">
+        <v>7.348</v>
+      </c>
+      <c r="L551" t="n">
+        <v>7.422</v>
+      </c>
+      <c r="M551" t="n">
+        <v>7.414</v>
+      </c>
+      <c r="N551" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="O551" t="n">
+        <v>7.526</v>
+      </c>
+      <c r="P551" t="n">
+        <v>7.573</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>7.603</v>
+      </c>
+      <c r="R551" t="n">
+        <v>7.613</v>
+      </c>
+      <c r="S551" t="n">
+        <v>7.605</v>
+      </c>
+      <c r="T551" t="n">
+        <v>7.617</v>
+      </c>
+      <c r="U551" t="n">
+        <v>7.681</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B552" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C552" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D552" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="E552" t="n">
+        <v>6.566</v>
+      </c>
+      <c r="F552" t="n">
+        <v>6.984</v>
+      </c>
+      <c r="G552" t="n">
+        <v>7.183</v>
+      </c>
+      <c r="H552" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I552" t="n">
+        <v>7.278</v>
+      </c>
+      <c r="J552" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="K552" t="n">
+        <v>7.384</v>
+      </c>
+      <c r="L552" t="n">
+        <v>7.441</v>
+      </c>
+      <c r="M552" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="N552" t="n">
+        <v>7.564</v>
+      </c>
+      <c r="O552" t="n">
+        <v>7.547</v>
+      </c>
+      <c r="P552" t="n">
+        <v>7.592</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>7.623</v>
+      </c>
+      <c r="R552" t="n">
+        <v>7.629</v>
+      </c>
+      <c r="S552" t="n">
+        <v>7.626</v>
+      </c>
+      <c r="T552" t="n">
+        <v>7.675</v>
+      </c>
+      <c r="U552" t="n">
+        <v>7.708</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U552"/>
+  <dimension ref="A1:U553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36307,7 +36307,7 @@
         <v>5.56</v>
       </c>
       <c r="D552" t="n">
-        <v>6.169</v>
+        <v>6.18</v>
       </c>
       <c r="E552" t="n">
         <v>6.566</v>
@@ -36328,7 +36328,7 @@
         <v>7.323</v>
       </c>
       <c r="K552" t="n">
-        <v>7.384</v>
+        <v>7.366</v>
       </c>
       <c r="L552" t="n">
         <v>7.441</v>
@@ -36359,6 +36359,71 @@
       </c>
       <c r="U552" t="n">
         <v>7.708</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B553" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C553" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="D553" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="E553" t="n">
+        <v>6.479</v>
+      </c>
+      <c r="F553" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="G553" t="n">
+        <v>7.219</v>
+      </c>
+      <c r="H553" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="I553" t="n">
+        <v>7.312</v>
+      </c>
+      <c r="J553" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="K553" t="n">
+        <v>7.398</v>
+      </c>
+      <c r="L553" t="n">
+        <v>7.452</v>
+      </c>
+      <c r="M553" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="N553" t="n">
+        <v>7.587</v>
+      </c>
+      <c r="O553" t="n">
+        <v>7.568</v>
+      </c>
+      <c r="P553" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>7.686</v>
+      </c>
+      <c r="R553" t="n">
+        <v>7.685</v>
+      </c>
+      <c r="S553" t="n">
+        <v>7.689</v>
+      </c>
+      <c r="T553" t="n">
+        <v>7.627</v>
+      </c>
+      <c r="U553" t="n">
+        <v>7.772</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -36366,10 +36366,10 @@
         <v>44715</v>
       </c>
       <c r="B553" t="n">
-        <v>4.95</v>
+        <v>4.98</v>
       </c>
       <c r="C553" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D553" t="n">
         <v>6.225</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U553"/>
+  <dimension ref="A1:U554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36426,6 +36426,71 @@
         <v>7.772</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B554" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C554" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D554" t="n">
+        <v>6.266</v>
+      </c>
+      <c r="E554" t="n">
+        <v>6.562</v>
+      </c>
+      <c r="F554" t="n">
+        <v>7.032</v>
+      </c>
+      <c r="G554" t="n">
+        <v>7.266</v>
+      </c>
+      <c r="H554" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="I554" t="n">
+        <v>7.367</v>
+      </c>
+      <c r="J554" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="K554" t="n">
+        <v>7.429</v>
+      </c>
+      <c r="L554" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="M554" t="n">
+        <v>7.501</v>
+      </c>
+      <c r="N554" t="n">
+        <v>7.629</v>
+      </c>
+      <c r="O554" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="P554" t="n">
+        <v>7.687</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>7.714</v>
+      </c>
+      <c r="R554" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="S554" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="T554" t="n">
+        <v>7.631</v>
+      </c>
+      <c r="U554" t="n">
+        <v>7.805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U554"/>
+  <dimension ref="A1:U555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36431,7 +36431,7 @@
         <v>44718</v>
       </c>
       <c r="B554" t="n">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="C554" t="n">
         <v>5.56</v>
@@ -36464,7 +36464,7 @@
         <v>7.505</v>
       </c>
       <c r="M554" t="n">
-        <v>7.501</v>
+        <v>7.5</v>
       </c>
       <c r="N554" t="n">
         <v>7.629</v>
@@ -36489,6 +36489,71 @@
       </c>
       <c r="U554" t="n">
         <v>7.805</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B555" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C555" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D555" t="n">
+        <v>6.252</v>
+      </c>
+      <c r="E555" t="n">
+        <v>6.561</v>
+      </c>
+      <c r="F555" t="n">
+        <v>7.019</v>
+      </c>
+      <c r="G555" t="n">
+        <v>7.267</v>
+      </c>
+      <c r="H555" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="I555" t="n">
+        <v>7.392</v>
+      </c>
+      <c r="J555" t="n">
+        <v>7.435</v>
+      </c>
+      <c r="K555" t="n">
+        <v>7.447</v>
+      </c>
+      <c r="L555" t="n">
+        <v>7.521</v>
+      </c>
+      <c r="M555" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="N555" t="n">
+        <v>7.583</v>
+      </c>
+      <c r="O555" t="n">
+        <v>7.635</v>
+      </c>
+      <c r="P555" t="n">
+        <v>7.693</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>7.723</v>
+      </c>
+      <c r="R555" t="n">
+        <v>7.732</v>
+      </c>
+      <c r="S555" t="n">
+        <v>7.726</v>
+      </c>
+      <c r="T555" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="U555" t="n">
+        <v>7.823</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U555"/>
+  <dimension ref="A1:U557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36556,6 +36556,136 @@
         <v>7.823</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B556" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C556" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D556" t="n">
+        <v>6.184</v>
+      </c>
+      <c r="E556" t="n">
+        <v>6.495</v>
+      </c>
+      <c r="F556" t="n">
+        <v>6.936</v>
+      </c>
+      <c r="G556" t="n">
+        <v>7.171</v>
+      </c>
+      <c r="H556" t="n">
+        <v>7.291</v>
+      </c>
+      <c r="I556" t="n">
+        <v>7.339</v>
+      </c>
+      <c r="J556" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="K556" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="L556" t="n">
+        <v>7.497</v>
+      </c>
+      <c r="M556" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="N556" t="n">
+        <v>7.556</v>
+      </c>
+      <c r="O556" t="n">
+        <v>7.613</v>
+      </c>
+      <c r="P556" t="n">
+        <v>7.658</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>7.699</v>
+      </c>
+      <c r="R556" t="n">
+        <v>7.706</v>
+      </c>
+      <c r="S556" t="n">
+        <v>7.702</v>
+      </c>
+      <c r="T556" t="n">
+        <v>7.616</v>
+      </c>
+      <c r="U556" t="n">
+        <v>7.809</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B557" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C557" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D557" t="n">
+        <v>6.159</v>
+      </c>
+      <c r="E557" t="n">
+        <v>6.494</v>
+      </c>
+      <c r="F557" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="G557" t="n">
+        <v>7.161</v>
+      </c>
+      <c r="H557" t="n">
+        <v>7.271</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="J557" t="n">
+        <v>7.371</v>
+      </c>
+      <c r="K557" t="n">
+        <v>7.412</v>
+      </c>
+      <c r="L557" t="n">
+        <v>7.491</v>
+      </c>
+      <c r="M557" t="n">
+        <v>7.496</v>
+      </c>
+      <c r="N557" t="n">
+        <v>7.556</v>
+      </c>
+      <c r="O557" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="P557" t="n">
+        <v>7.632</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>7.675</v>
+      </c>
+      <c r="R557" t="n">
+        <v>7.682</v>
+      </c>
+      <c r="S557" t="n">
+        <v>7.678</v>
+      </c>
+      <c r="T557" t="n">
+        <v>7.592</v>
+      </c>
+      <c r="U557" t="n">
+        <v>7.804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U557"/>
+  <dimension ref="A1:U558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36686,6 +36686,71 @@
         <v>7.804</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B558" t="n">
+        <v>5</v>
+      </c>
+      <c r="C558" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D558" t="n">
+        <v>6.061</v>
+      </c>
+      <c r="E558" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F558" t="n">
+        <v>6.977</v>
+      </c>
+      <c r="G558" t="n">
+        <v>7.224</v>
+      </c>
+      <c r="H558" t="n">
+        <v>7.366</v>
+      </c>
+      <c r="I558" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="J558" t="n">
+        <v>7.409</v>
+      </c>
+      <c r="K558" t="n">
+        <v>7.431</v>
+      </c>
+      <c r="L558" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="M558" t="n">
+        <v>7.519</v>
+      </c>
+      <c r="N558" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="O558" t="n">
+        <v>7.613</v>
+      </c>
+      <c r="P558" t="n">
+        <v>7.672</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>7.712</v>
+      </c>
+      <c r="R558" t="n">
+        <v>7.719</v>
+      </c>
+      <c r="S558" t="n">
+        <v>7.715</v>
+      </c>
+      <c r="T558" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="U558" t="n">
+        <v>7.823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -36709,7 +36709,7 @@
         <v>7.224</v>
       </c>
       <c r="H558" t="n">
-        <v>7.366</v>
+        <v>7.304</v>
       </c>
       <c r="I558" t="n">
         <v>7.357</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U558"/>
+  <dimension ref="A1:U559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36751,6 +36751,71 @@
         <v>7.823</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B559" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C559" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D559" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="E559" t="n">
+        <v>6.554</v>
+      </c>
+      <c r="F559" t="n">
+        <v>7.059</v>
+      </c>
+      <c r="G559" t="n">
+        <v>7.342</v>
+      </c>
+      <c r="H559" t="n">
+        <v>7.398</v>
+      </c>
+      <c r="I559" t="n">
+        <v>7.453</v>
+      </c>
+      <c r="J559" t="n">
+        <v>7.495</v>
+      </c>
+      <c r="K559" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="L559" t="n">
+        <v>7.609</v>
+      </c>
+      <c r="M559" t="n">
+        <v>7.604</v>
+      </c>
+      <c r="N559" t="n">
+        <v>7.645</v>
+      </c>
+      <c r="O559" t="n">
+        <v>7.742</v>
+      </c>
+      <c r="P559" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>7.783</v>
+      </c>
+      <c r="R559" t="n">
+        <v>7.785</v>
+      </c>
+      <c r="S559" t="n">
+        <v>7.785</v>
+      </c>
+      <c r="T559" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U559" t="n">
+        <v>7.876</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U559"/>
+  <dimension ref="A1:U560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36792,10 +36792,10 @@
         <v>7.604</v>
       </c>
       <c r="N559" t="n">
-        <v>7.645</v>
+        <v>7.624</v>
       </c>
       <c r="O559" t="n">
-        <v>7.742</v>
+        <v>7.677</v>
       </c>
       <c r="P559" t="n">
         <v>7.73</v>
@@ -36814,6 +36814,71 @@
       </c>
       <c r="U559" t="n">
         <v>7.876</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B560" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C560" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D560" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="E560" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="F560" t="n">
+        <v>7.038</v>
+      </c>
+      <c r="G560" t="n">
+        <v>7.304</v>
+      </c>
+      <c r="H560" t="n">
+        <v>7.379</v>
+      </c>
+      <c r="I560" t="n">
+        <v>7.436</v>
+      </c>
+      <c r="J560" t="n">
+        <v>7.486</v>
+      </c>
+      <c r="K560" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="L560" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="M560" t="n">
+        <v>7.581</v>
+      </c>
+      <c r="N560" t="n">
+        <v>7.715</v>
+      </c>
+      <c r="O560" t="n">
+        <v>7.658</v>
+      </c>
+      <c r="P560" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>7.765</v>
+      </c>
+      <c r="R560" t="n">
+        <v>7.772</v>
+      </c>
+      <c r="S560" t="n">
+        <v>7.767</v>
+      </c>
+      <c r="T560" t="n">
+        <v>7.681</v>
+      </c>
+      <c r="U560" t="n">
+        <v>7.862</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U560"/>
+  <dimension ref="A1:U563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36821,7 +36821,7 @@
         <v>44726</v>
       </c>
       <c r="B560" t="n">
-        <v>4.97</v>
+        <v>4.98</v>
       </c>
       <c r="C560" t="n">
         <v>5.62</v>
@@ -36879,6 +36879,201 @@
       </c>
       <c r="U560" t="n">
         <v>7.862</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B561" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C561" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D561" t="n">
+        <v>6.106</v>
+      </c>
+      <c r="E561" t="n">
+        <v>6.565</v>
+      </c>
+      <c r="F561" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="G561" t="n">
+        <v>7.313</v>
+      </c>
+      <c r="H561" t="n">
+        <v>7.394</v>
+      </c>
+      <c r="I561" t="n">
+        <v>7.443</v>
+      </c>
+      <c r="J561" t="n">
+        <v>7.484</v>
+      </c>
+      <c r="K561" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="L561" t="n">
+        <v>7.582</v>
+      </c>
+      <c r="M561" t="n">
+        <v>7.592</v>
+      </c>
+      <c r="N561" t="n">
+        <v>7.731</v>
+      </c>
+      <c r="O561" t="n">
+        <v>7.664</v>
+      </c>
+      <c r="P561" t="n">
+        <v>7.716</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>7.766</v>
+      </c>
+      <c r="R561" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="S561" t="n">
+        <v>7.769</v>
+      </c>
+      <c r="T561" t="n">
+        <v>7.682</v>
+      </c>
+      <c r="U561" t="n">
+        <v>7.857</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B562" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C562" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D562" t="n">
+        <v>6.215</v>
+      </c>
+      <c r="E562" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F562" t="n">
+        <v>7.083</v>
+      </c>
+      <c r="G562" t="n">
+        <v>7.327</v>
+      </c>
+      <c r="H562" t="n">
+        <v>7.404</v>
+      </c>
+      <c r="I562" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="J562" t="n">
+        <v>7.513</v>
+      </c>
+      <c r="K562" t="n">
+        <v>7.522</v>
+      </c>
+      <c r="L562" t="n">
+        <v>7.607</v>
+      </c>
+      <c r="M562" t="n">
+        <v>7.617</v>
+      </c>
+      <c r="N562" t="n">
+        <v>7.604</v>
+      </c>
+      <c r="O562" t="n">
+        <v>7.665</v>
+      </c>
+      <c r="P562" t="n">
+        <v>7.731</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>7.779</v>
+      </c>
+      <c r="R562" t="n">
+        <v>7.786</v>
+      </c>
+      <c r="S562" t="n">
+        <v>7.782</v>
+      </c>
+      <c r="T562" t="n">
+        <v>7.696</v>
+      </c>
+      <c r="U562" t="n">
+        <v>7.881</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B563" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C563" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D563" t="n">
+        <v>6.127</v>
+      </c>
+      <c r="E563" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F563" t="n">
+        <v>7.002</v>
+      </c>
+      <c r="G563" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="H563" t="n">
+        <v>7.385</v>
+      </c>
+      <c r="I563" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J563" t="n">
+        <v>7.423</v>
+      </c>
+      <c r="K563" t="n">
+        <v>7.468</v>
+      </c>
+      <c r="L563" t="n">
+        <v>7.542</v>
+      </c>
+      <c r="M563" t="n">
+        <v>7.546</v>
+      </c>
+      <c r="N563" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="O563" t="n">
+        <v>7.602</v>
+      </c>
+      <c r="P563" t="n">
+        <v>7.662</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>7.727</v>
+      </c>
+      <c r="R563" t="n">
+        <v>7.727</v>
+      </c>
+      <c r="S563" t="n">
+        <v>7.731</v>
+      </c>
+      <c r="T563" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="U563" t="n">
+        <v>7.847</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U563"/>
+  <dimension ref="A1:U564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37025,7 +37025,7 @@
         <v>6.127</v>
       </c>
       <c r="E563" t="n">
-        <v>6.58</v>
+        <v>6.607</v>
       </c>
       <c r="F563" t="n">
         <v>7.002</v>
@@ -37034,16 +37034,16 @@
         <v>7.254</v>
       </c>
       <c r="H563" t="n">
-        <v>7.385</v>
+        <v>7.35</v>
       </c>
       <c r="I563" t="n">
         <v>7.38</v>
       </c>
       <c r="J563" t="n">
-        <v>7.423</v>
+        <v>7.461</v>
       </c>
       <c r="K563" t="n">
-        <v>7.468</v>
+        <v>7.501</v>
       </c>
       <c r="L563" t="n">
         <v>7.542</v>
@@ -37055,10 +37055,10 @@
         <v>7.68</v>
       </c>
       <c r="O563" t="n">
-        <v>7.602</v>
+        <v>7.645</v>
       </c>
       <c r="P563" t="n">
-        <v>7.662</v>
+        <v>7.677</v>
       </c>
       <c r="Q563" t="n">
         <v>7.727</v>
@@ -37067,13 +37067,78 @@
         <v>7.727</v>
       </c>
       <c r="S563" t="n">
-        <v>7.731</v>
+        <v>7.81</v>
       </c>
       <c r="T563" t="n">
         <v>7.644</v>
       </c>
       <c r="U563" t="n">
         <v>7.847</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B564" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C564" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D564" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="E564" t="n">
+        <v>6.546</v>
+      </c>
+      <c r="F564" t="n">
+        <v>7</v>
+      </c>
+      <c r="G564" t="n">
+        <v>7.136</v>
+      </c>
+      <c r="H564" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="I564" t="n">
+        <v>7.302</v>
+      </c>
+      <c r="J564" t="n">
+        <v>7.295</v>
+      </c>
+      <c r="K564" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="L564" t="n">
+        <v>7.431</v>
+      </c>
+      <c r="M564" t="n">
+        <v>7.427</v>
+      </c>
+      <c r="N564" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="O564" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="P564" t="n">
+        <v>7.595</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>7.627</v>
+      </c>
+      <c r="R564" t="n">
+        <v>7.646</v>
+      </c>
+      <c r="S564" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="T564" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="U564" t="n">
+        <v>7.762</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U564"/>
+  <dimension ref="A1:U565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37141,6 +37141,71 @@
         <v>7.762</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B565" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C565" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D565" t="n">
+        <v>6.177</v>
+      </c>
+      <c r="E565" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="F565" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="G565" t="n">
+        <v>7.192</v>
+      </c>
+      <c r="H565" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="I565" t="n">
+        <v>7.347</v>
+      </c>
+      <c r="J565" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="K565" t="n">
+        <v>7.404</v>
+      </c>
+      <c r="L565" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="M565" t="n">
+        <v>7.482</v>
+      </c>
+      <c r="N565" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="O565" t="n">
+        <v>7.598</v>
+      </c>
+      <c r="P565" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>7.661</v>
+      </c>
+      <c r="R565" t="n">
+        <v>7.671</v>
+      </c>
+      <c r="S565" t="n">
+        <v>7.663</v>
+      </c>
+      <c r="T565" t="n">
+        <v>7.577</v>
+      </c>
+      <c r="U565" t="n">
+        <v>7.786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U565"/>
+  <dimension ref="A1:U566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37149,7 +37149,7 @@
         <v>5.05</v>
       </c>
       <c r="C565" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="D565" t="n">
         <v>6.177</v>
@@ -37204,6 +37204,71 @@
       </c>
       <c r="U565" t="n">
         <v>7.786</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B566" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C566" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D566" t="n">
+        <v>6.265</v>
+      </c>
+      <c r="E566" t="n">
+        <v>6.544</v>
+      </c>
+      <c r="F566" t="n">
+        <v>6.902</v>
+      </c>
+      <c r="G566" t="n">
+        <v>7.118</v>
+      </c>
+      <c r="H566" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="I566" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="J566" t="n">
+        <v>7.286</v>
+      </c>
+      <c r="K566" t="n">
+        <v>7.343</v>
+      </c>
+      <c r="L566" t="n">
+        <v>7.396</v>
+      </c>
+      <c r="M566" t="n">
+        <v>7.396</v>
+      </c>
+      <c r="N566" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="O566" t="n">
+        <v>7.465</v>
+      </c>
+      <c r="P566" t="n">
+        <v>7.522</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>7.578</v>
+      </c>
+      <c r="R566" t="n">
+        <v>7.608</v>
+      </c>
+      <c r="S566" t="n">
+        <v>7.581</v>
+      </c>
+      <c r="T566" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="U566" t="n">
+        <v>7.715</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U566"/>
+  <dimension ref="A1:U567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37271,6 +37271,71 @@
         <v>7.715</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B567" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C567" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D567" t="n">
+        <v>6.285</v>
+      </c>
+      <c r="E567" t="n">
+        <v>6.549</v>
+      </c>
+      <c r="F567" t="n">
+        <v>6.938</v>
+      </c>
+      <c r="G567" t="n">
+        <v>7.138</v>
+      </c>
+      <c r="H567" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="I567" t="n">
+        <v>7.258</v>
+      </c>
+      <c r="J567" t="n">
+        <v>7.333</v>
+      </c>
+      <c r="K567" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="L567" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="M567" t="n">
+        <v>7.419</v>
+      </c>
+      <c r="N567" t="n">
+        <v>7.537</v>
+      </c>
+      <c r="O567" t="n">
+        <v>7.498</v>
+      </c>
+      <c r="P567" t="n">
+        <v>7.537</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>7.594</v>
+      </c>
+      <c r="R567" t="n">
+        <v>7.613</v>
+      </c>
+      <c r="S567" t="n">
+        <v>7.597</v>
+      </c>
+      <c r="T567" t="n">
+        <v>7.511</v>
+      </c>
+      <c r="U567" t="n">
+        <v>7.717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U567"/>
+  <dimension ref="A1:U568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37285,7 +37285,7 @@
         <v>6.285</v>
       </c>
       <c r="E567" t="n">
-        <v>6.549</v>
+        <v>6.576</v>
       </c>
       <c r="F567" t="n">
         <v>6.938</v>
@@ -37334,6 +37334,71 @@
       </c>
       <c r="U567" t="n">
         <v>7.717</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B568" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C568" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D568" t="n">
+        <v>6.231</v>
+      </c>
+      <c r="E568" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="F568" t="n">
+        <v>6.942</v>
+      </c>
+      <c r="G568" t="n">
+        <v>7.154</v>
+      </c>
+      <c r="H568" t="n">
+        <v>7.239</v>
+      </c>
+      <c r="I568" t="n">
+        <v>7.292</v>
+      </c>
+      <c r="J568" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="K568" t="n">
+        <v>7.371</v>
+      </c>
+      <c r="L568" t="n">
+        <v>7.451</v>
+      </c>
+      <c r="M568" t="n">
+        <v>7.444</v>
+      </c>
+      <c r="N568" t="n">
+        <v>7.576</v>
+      </c>
+      <c r="O568" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="P568" t="n">
+        <v>7.531</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>7.602</v>
+      </c>
+      <c r="R568" t="n">
+        <v>7.624</v>
+      </c>
+      <c r="S568" t="n">
+        <v>7.605</v>
+      </c>
+      <c r="T568" t="n">
+        <v>7.519</v>
+      </c>
+      <c r="U568" t="n">
+        <v>7.702</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -37344,7 +37344,7 @@
         <v>5.11</v>
       </c>
       <c r="C568" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="D568" t="n">
         <v>6.231</v>
@@ -37371,7 +37371,7 @@
         <v>7.371</v>
       </c>
       <c r="L568" t="n">
-        <v>7.451</v>
+        <v>7.438</v>
       </c>
       <c r="M568" t="n">
         <v>7.444</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U568"/>
+  <dimension ref="A1:U569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37401,6 +37401,71 @@
         <v>7.702</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B569" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C569" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D569" t="n">
+        <v>6.123</v>
+      </c>
+      <c r="E569" t="n">
+        <v>6.558</v>
+      </c>
+      <c r="F569" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="G569" t="n">
+        <v>7.138</v>
+      </c>
+      <c r="H569" t="n">
+        <v>7.229</v>
+      </c>
+      <c r="I569" t="n">
+        <v>7.263</v>
+      </c>
+      <c r="J569" t="n">
+        <v>7.336</v>
+      </c>
+      <c r="K569" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="L569" t="n">
+        <v>7.408</v>
+      </c>
+      <c r="M569" t="n">
+        <v>7.407</v>
+      </c>
+      <c r="N569" t="n">
+        <v>7.531</v>
+      </c>
+      <c r="O569" t="n">
+        <v>7.481</v>
+      </c>
+      <c r="P569" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>7.593</v>
+      </c>
+      <c r="R569" t="n">
+        <v>7.615</v>
+      </c>
+      <c r="S569" t="n">
+        <v>7.597</v>
+      </c>
+      <c r="T569" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="U569" t="n">
+        <v>7.688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U569"/>
+  <dimension ref="A1:U570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37466,6 +37466,71 @@
         <v>7.688</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B570" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C570" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D570" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="E570" t="n">
+        <v>6.544</v>
+      </c>
+      <c r="F570" t="n">
+        <v>7.004</v>
+      </c>
+      <c r="G570" t="n">
+        <v>7.206</v>
+      </c>
+      <c r="H570" t="n">
+        <v>7.307</v>
+      </c>
+      <c r="I570" t="n">
+        <v>7.321</v>
+      </c>
+      <c r="J570" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="K570" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="L570" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="M570" t="n">
+        <v>7.466</v>
+      </c>
+      <c r="N570" t="n">
+        <v>7.594</v>
+      </c>
+      <c r="O570" t="n">
+        <v>7.524</v>
+      </c>
+      <c r="P570" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="R570" t="n">
+        <v>7.658</v>
+      </c>
+      <c r="S570" t="n">
+        <v>7.637</v>
+      </c>
+      <c r="T570" t="n">
+        <v>7.551</v>
+      </c>
+      <c r="U570" t="n">
+        <v>7.734</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U570"/>
+  <dimension ref="A1:U571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37471,10 +37471,10 @@
         <v>44740</v>
       </c>
       <c r="B570" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C570" t="n">
-        <v>5.72</v>
+        <v>5.68</v>
       </c>
       <c r="D570" t="n">
         <v>6.225</v>
@@ -37489,7 +37489,7 @@
         <v>7.206</v>
       </c>
       <c r="H570" t="n">
-        <v>7.307</v>
+        <v>7.282</v>
       </c>
       <c r="I570" t="n">
         <v>7.321</v>
@@ -37529,6 +37529,71 @@
       </c>
       <c r="U570" t="n">
         <v>7.734</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B571" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="C571" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D571" t="n">
+        <v>6.094</v>
+      </c>
+      <c r="E571" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="F571" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="G571" t="n">
+        <v>7.193</v>
+      </c>
+      <c r="H571" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="I571" t="n">
+        <v>7.303</v>
+      </c>
+      <c r="J571" t="n">
+        <v>7.372</v>
+      </c>
+      <c r="K571" t="n">
+        <v>7.373</v>
+      </c>
+      <c r="L571" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="M571" t="n">
+        <v>7.459</v>
+      </c>
+      <c r="N571" t="n">
+        <v>7.584</v>
+      </c>
+      <c r="O571" t="n">
+        <v>7.524</v>
+      </c>
+      <c r="P571" t="n">
+        <v>7.576</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="R571" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="S571" t="n">
+        <v>7.637</v>
+      </c>
+      <c r="T571" t="n">
+        <v>7.551</v>
+      </c>
+      <c r="U571" t="n">
+        <v>7.723</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U571"/>
+  <dimension ref="A1:U572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37596,6 +37596,71 @@
         <v>7.723</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B572" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C572" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D572" t="n">
+        <v>6.207</v>
+      </c>
+      <c r="E572" t="n">
+        <v>6.528</v>
+      </c>
+      <c r="F572" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="G572" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="H572" t="n">
+        <v>7.255</v>
+      </c>
+      <c r="I572" t="n">
+        <v>7.292</v>
+      </c>
+      <c r="J572" t="n">
+        <v>7.361</v>
+      </c>
+      <c r="K572" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="L572" t="n">
+        <v>7.453</v>
+      </c>
+      <c r="M572" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="N572" t="n">
+        <v>7.584</v>
+      </c>
+      <c r="O572" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="P572" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>7.635</v>
+      </c>
+      <c r="R572" t="n">
+        <v>7.653</v>
+      </c>
+      <c r="S572" t="n">
+        <v>7.639</v>
+      </c>
+      <c r="T572" t="n">
+        <v>7.532</v>
+      </c>
+      <c r="U572" t="n">
+        <v>7.724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U572"/>
+  <dimension ref="A1:U573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37631,7 +37631,7 @@
         <v>7.389</v>
       </c>
       <c r="L572" t="n">
-        <v>7.453</v>
+        <v>7.44</v>
       </c>
       <c r="M572" t="n">
         <v>7.45</v>
@@ -37659,6 +37659,71 @@
       </c>
       <c r="U572" t="n">
         <v>7.724</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B573" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C573" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D573" t="n">
+        <v>6.333</v>
+      </c>
+      <c r="E573" t="n">
+        <v>6.464</v>
+      </c>
+      <c r="F573" t="n">
+        <v>6.933</v>
+      </c>
+      <c r="G573" t="n">
+        <v>7.142</v>
+      </c>
+      <c r="H573" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="I573" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="J573" t="n">
+        <v>7.334</v>
+      </c>
+      <c r="K573" t="n">
+        <v>7.351</v>
+      </c>
+      <c r="L573" t="n">
+        <v>7.408</v>
+      </c>
+      <c r="M573" t="n">
+        <v>7.424</v>
+      </c>
+      <c r="N573" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="O573" t="n">
+        <v>7.537</v>
+      </c>
+      <c r="P573" t="n">
+        <v>7.562</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>7.603</v>
+      </c>
+      <c r="R573" t="n">
+        <v>7.624</v>
+      </c>
+      <c r="S573" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="T573" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U573" t="n">
+        <v>7.702</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -37666,7 +37666,7 @@
         <v>44743</v>
       </c>
       <c r="B573" t="n">
-        <v>5.11</v>
+        <v>5.13</v>
       </c>
       <c r="C573" t="n">
         <v>5.72</v>
@@ -37693,7 +37693,7 @@
         <v>7.334</v>
       </c>
       <c r="K573" t="n">
-        <v>7.351</v>
+        <v>7.36</v>
       </c>
       <c r="L573" t="n">
         <v>7.408</v>
@@ -37708,7 +37708,7 @@
         <v>7.537</v>
       </c>
       <c r="P573" t="n">
-        <v>7.562</v>
+        <v>7.555</v>
       </c>
       <c r="Q573" t="n">
         <v>7.603</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U573"/>
+  <dimension ref="A1:U574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37726,6 +37726,71 @@
         <v>7.702</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B574" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C574" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D574" t="n">
+        <v>6.313</v>
+      </c>
+      <c r="E574" t="n">
+        <v>6.496</v>
+      </c>
+      <c r="F574" t="n">
+        <v>6.864</v>
+      </c>
+      <c r="G574" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="H574" t="n">
+        <v>7.158</v>
+      </c>
+      <c r="I574" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="J574" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K574" t="n">
+        <v>7.287</v>
+      </c>
+      <c r="L574" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="M574" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="N574" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="O574" t="n">
+        <v>7.486</v>
+      </c>
+      <c r="P574" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>7.582</v>
+      </c>
+      <c r="R574" t="n">
+        <v>7.601</v>
+      </c>
+      <c r="S574" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="T574" t="n">
+        <v>7.478</v>
+      </c>
+      <c r="U574" t="n">
+        <v>7.669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U574"/>
+  <dimension ref="A1:U575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37740,7 +37740,7 @@
         <v>6.313</v>
       </c>
       <c r="E574" t="n">
-        <v>6.496</v>
+        <v>6.462</v>
       </c>
       <c r="F574" t="n">
         <v>6.864</v>
@@ -37788,6 +37788,71 @@
         <v>7.478</v>
       </c>
       <c r="U574" t="n">
+        <v>7.669</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B575" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C575" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D575" t="n">
+        <v>6.309</v>
+      </c>
+      <c r="E575" t="n">
+        <v>6.461</v>
+      </c>
+      <c r="F575" t="n">
+        <v>6.877</v>
+      </c>
+      <c r="G575" t="n">
+        <v>7.099</v>
+      </c>
+      <c r="H575" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="I575" t="n">
+        <v>7.239</v>
+      </c>
+      <c r="J575" t="n">
+        <v>7.296</v>
+      </c>
+      <c r="K575" t="n">
+        <v>7.289</v>
+      </c>
+      <c r="L575" t="n">
+        <v>7.384</v>
+      </c>
+      <c r="M575" t="n">
+        <v>7.391</v>
+      </c>
+      <c r="N575" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="O575" t="n">
+        <v>7.499</v>
+      </c>
+      <c r="P575" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>7.586</v>
+      </c>
+      <c r="R575" t="n">
+        <v>7.599</v>
+      </c>
+      <c r="S575" t="n">
+        <v>7.589</v>
+      </c>
+      <c r="T575" t="n">
+        <v>7.482</v>
+      </c>
+      <c r="U575" t="n">
         <v>7.669</v>
       </c>
     </row>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U575"/>
+  <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37799,7 +37799,7 @@
         <v>5.12</v>
       </c>
       <c r="C575" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="D575" t="n">
         <v>6.309</v>
@@ -37854,6 +37854,71 @@
       </c>
       <c r="U575" t="n">
         <v>7.669</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B576" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C576" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D576" t="n">
+        <v>6.196</v>
+      </c>
+      <c r="E576" t="n">
+        <v>6.358</v>
+      </c>
+      <c r="F576" t="n">
+        <v>6.784</v>
+      </c>
+      <c r="G576" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="H576" t="n">
+        <v>7.093</v>
+      </c>
+      <c r="I576" t="n">
+        <v>7.152</v>
+      </c>
+      <c r="J576" t="n">
+        <v>7.214</v>
+      </c>
+      <c r="K576" t="n">
+        <v>7.205</v>
+      </c>
+      <c r="L576" t="n">
+        <v>7.299</v>
+      </c>
+      <c r="M576" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="N576" t="n">
+        <v>7.282</v>
+      </c>
+      <c r="O576" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="P576" t="n">
+        <v>7.424</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>7.484</v>
+      </c>
+      <c r="R576" t="n">
+        <v>7.498</v>
+      </c>
+      <c r="S576" t="n">
+        <v>7.487</v>
+      </c>
+      <c r="T576" t="n">
+        <v>7.458</v>
+      </c>
+      <c r="U576" t="n">
+        <v>7.569</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U576"/>
+  <dimension ref="A1:U577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37921,6 +37921,71 @@
         <v>7.569</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B577" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C577" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D577" t="n">
+        <v>6.238</v>
+      </c>
+      <c r="E577" t="n">
+        <v>6.404</v>
+      </c>
+      <c r="F577" t="n">
+        <v>6.833</v>
+      </c>
+      <c r="G577" t="n">
+        <v>7.062</v>
+      </c>
+      <c r="H577" t="n">
+        <v>7.148</v>
+      </c>
+      <c r="I577" t="n">
+        <v>7.233</v>
+      </c>
+      <c r="J577" t="n">
+        <v>7.268</v>
+      </c>
+      <c r="K577" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="L577" t="n">
+        <v>7.343</v>
+      </c>
+      <c r="M577" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="N577" t="n">
+        <v>7.342</v>
+      </c>
+      <c r="O577" t="n">
+        <v>7.404</v>
+      </c>
+      <c r="P577" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>7.533</v>
+      </c>
+      <c r="R577" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="S577" t="n">
+        <v>7.511</v>
+      </c>
+      <c r="T577" t="n">
+        <v>7.457</v>
+      </c>
+      <c r="U577" t="n">
+        <v>7.624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U577"/>
+  <dimension ref="A1:U578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37926,10 +37926,10 @@
         <v>44749</v>
       </c>
       <c r="B577" t="n">
-        <v>5.15</v>
+        <v>5.16</v>
       </c>
       <c r="C577" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="D577" t="n">
         <v>6.238</v>
@@ -37947,7 +37947,7 @@
         <v>7.148</v>
       </c>
       <c r="I577" t="n">
-        <v>7.233</v>
+        <v>7.192</v>
       </c>
       <c r="J577" t="n">
         <v>7.268</v>
@@ -37983,7 +37983,72 @@
         <v>7.457</v>
       </c>
       <c r="U577" t="n">
-        <v>7.624</v>
+        <v>7.596</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B578" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C578" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D578" t="n">
+        <v>6.318</v>
+      </c>
+      <c r="E578" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F578" t="n">
+        <v>6.896</v>
+      </c>
+      <c r="G578" t="n">
+        <v>7.128</v>
+      </c>
+      <c r="H578" t="n">
+        <v>7.174</v>
+      </c>
+      <c r="I578" t="n">
+        <v>7.335</v>
+      </c>
+      <c r="J578" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="K578" t="n">
+        <v>7.309</v>
+      </c>
+      <c r="L578" t="n">
+        <v>7.402</v>
+      </c>
+      <c r="M578" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="N578" t="n">
+        <v>7.402</v>
+      </c>
+      <c r="O578" t="n">
+        <v>7.489</v>
+      </c>
+      <c r="P578" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>7.596</v>
+      </c>
+      <c r="R578" t="n">
+        <v>7.565</v>
+      </c>
+      <c r="S578" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="T578" t="n">
+        <v>7.521</v>
+      </c>
+      <c r="U578" t="n">
+        <v>7.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -38039,7 +38039,7 @@
         <v>7.596</v>
       </c>
       <c r="R578" t="n">
-        <v>7.565</v>
+        <v>7.554</v>
       </c>
       <c r="S578" t="n">
         <v>7.575</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U578"/>
+  <dimension ref="A1:U579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38051,6 +38051,71 @@
         <v>7.66</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B579" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C579" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D579" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E579" t="n">
+        <v>6.392</v>
+      </c>
+      <c r="F579" t="n">
+        <v>6.905</v>
+      </c>
+      <c r="G579" t="n">
+        <v>7.146</v>
+      </c>
+      <c r="H579" t="n">
+        <v>7.216</v>
+      </c>
+      <c r="I579" t="n">
+        <v>7.304</v>
+      </c>
+      <c r="J579" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="K579" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="L579" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="M579" t="n">
+        <v>7.427</v>
+      </c>
+      <c r="N579" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="O579" t="n">
+        <v>7.504</v>
+      </c>
+      <c r="P579" t="n">
+        <v>7.566</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>7.615</v>
+      </c>
+      <c r="R579" t="n">
+        <v>7.621</v>
+      </c>
+      <c r="S579" t="n">
+        <v>7.594</v>
+      </c>
+      <c r="T579" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="U579" t="n">
+        <v>7.697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U579"/>
+  <dimension ref="A1:U580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38116,6 +38116,71 @@
         <v>7.697</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B580" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C580" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D580" t="n">
+        <v>6.278</v>
+      </c>
+      <c r="E580" t="n">
+        <v>6.431</v>
+      </c>
+      <c r="F580" t="n">
+        <v>6.887</v>
+      </c>
+      <c r="G580" t="n">
+        <v>7.096</v>
+      </c>
+      <c r="H580" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="I580" t="n">
+        <v>7.318</v>
+      </c>
+      <c r="J580" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="K580" t="n">
+        <v>7.285</v>
+      </c>
+      <c r="L580" t="n">
+        <v>7.395</v>
+      </c>
+      <c r="M580" t="n">
+        <v>7.391</v>
+      </c>
+      <c r="N580" t="n">
+        <v>7.379</v>
+      </c>
+      <c r="O580" t="n">
+        <v>7.478</v>
+      </c>
+      <c r="P580" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>7.588</v>
+      </c>
+      <c r="R580" t="n">
+        <v>7.595</v>
+      </c>
+      <c r="S580" t="n">
+        <v>7.566</v>
+      </c>
+      <c r="T580" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="U580" t="n">
+        <v>7.674</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U580"/>
+  <dimension ref="A1:U581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38181,6 +38181,71 @@
         <v>7.674</v>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B581" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="C581" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D581" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="E581" t="n">
+        <v>6.417</v>
+      </c>
+      <c r="F581" t="n">
+        <v>6.809</v>
+      </c>
+      <c r="G581" t="n">
+        <v>6.988</v>
+      </c>
+      <c r="H581" t="n">
+        <v>7.097</v>
+      </c>
+      <c r="I581" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J581" t="n">
+        <v>7.243</v>
+      </c>
+      <c r="K581" t="n">
+        <v>7.222</v>
+      </c>
+      <c r="L581" t="n">
+        <v>7.346</v>
+      </c>
+      <c r="M581" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="N581" t="n">
+        <v>7.325</v>
+      </c>
+      <c r="O581" t="n">
+        <v>7.473</v>
+      </c>
+      <c r="P581" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="R581" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="S581" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="T581" t="n">
+        <v>7.475</v>
+      </c>
+      <c r="U581" t="n">
+        <v>7.637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U581"/>
+  <dimension ref="A1:U582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38246,6 +38246,71 @@
         <v>7.637</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B582" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C582" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D582" t="n">
+        <v>6.363</v>
+      </c>
+      <c r="E582" t="n">
+        <v>6.463</v>
+      </c>
+      <c r="F582" t="n">
+        <v>6.822</v>
+      </c>
+      <c r="G582" t="n">
+        <v>7.033</v>
+      </c>
+      <c r="H582" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="I582" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J582" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="K582" t="n">
+        <v>7.293</v>
+      </c>
+      <c r="L582" t="n">
+        <v>7.395</v>
+      </c>
+      <c r="M582" t="n">
+        <v>7.384</v>
+      </c>
+      <c r="N582" t="n">
+        <v>7.371</v>
+      </c>
+      <c r="O582" t="n">
+        <v>7.523</v>
+      </c>
+      <c r="P582" t="n">
+        <v>7.542</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>7.596</v>
+      </c>
+      <c r="R582" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="S582" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="T582" t="n">
+        <v>7.522</v>
+      </c>
+      <c r="U582" t="n">
+        <v>7.688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U582"/>
+  <dimension ref="A1:U583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38257,7 +38257,7 @@
         <v>5.75</v>
       </c>
       <c r="D582" t="n">
-        <v>6.363</v>
+        <v>6.253</v>
       </c>
       <c r="E582" t="n">
         <v>6.463</v>
@@ -38309,6 +38309,71 @@
       </c>
       <c r="U582" t="n">
         <v>7.688</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B583" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C583" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D583" t="n">
+        <v>6.263</v>
+      </c>
+      <c r="E583" t="n">
+        <v>6.411</v>
+      </c>
+      <c r="F583" t="n">
+        <v>6.886</v>
+      </c>
+      <c r="G583" t="n">
+        <v>7.097</v>
+      </c>
+      <c r="H583" t="n">
+        <v>7.197</v>
+      </c>
+      <c r="I583" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="J583" t="n">
+        <v>7.308</v>
+      </c>
+      <c r="K583" t="n">
+        <v>7.287</v>
+      </c>
+      <c r="L583" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="M583" t="n">
+        <v>7.438</v>
+      </c>
+      <c r="N583" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="O583" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="P583" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>7.627</v>
+      </c>
+      <c r="R583" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="S583" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="T583" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="U583" t="n">
+        <v>7.744</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -38316,10 +38316,10 @@
         <v>44757</v>
       </c>
       <c r="B583" t="n">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="C583" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="D583" t="n">
         <v>6.263</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U583"/>
+  <dimension ref="A1:U584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38376,6 +38376,71 @@
         <v>7.744</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B584" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="C584" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D584" t="n">
+        <v>6.242</v>
+      </c>
+      <c r="E584" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="F584" t="n">
+        <v>6.879</v>
+      </c>
+      <c r="G584" t="n">
+        <v>7.089</v>
+      </c>
+      <c r="H584" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I584" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="J584" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="K584" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L584" t="n">
+        <v>7.426</v>
+      </c>
+      <c r="M584" t="n">
+        <v>7.437</v>
+      </c>
+      <c r="N584" t="n">
+        <v>7.424</v>
+      </c>
+      <c r="O584" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="P584" t="n">
+        <v>7.567</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="R584" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="S584" t="n">
+        <v>7.607</v>
+      </c>
+      <c r="T584" t="n">
+        <v>7.553</v>
+      </c>
+      <c r="U584" t="n">
+        <v>7.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U584"/>
+  <dimension ref="A1:U586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38384,7 +38384,7 @@
         <v>5.23</v>
       </c>
       <c r="C584" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="D584" t="n">
         <v>6.242</v>
@@ -38439,6 +38439,136 @@
       </c>
       <c r="U584" t="n">
         <v>7.73</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B585" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C585" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D585" t="n">
+        <v>6.246</v>
+      </c>
+      <c r="E585" t="n">
+        <v>6.422</v>
+      </c>
+      <c r="F585" t="n">
+        <v>6.861</v>
+      </c>
+      <c r="G585" t="n">
+        <v>7.065</v>
+      </c>
+      <c r="H585" t="n">
+        <v>7.185</v>
+      </c>
+      <c r="I585" t="n">
+        <v>7.314</v>
+      </c>
+      <c r="J585" t="n">
+        <v>7.326</v>
+      </c>
+      <c r="K585" t="n">
+        <v>7.302</v>
+      </c>
+      <c r="L585" t="n">
+        <v>7.424</v>
+      </c>
+      <c r="M585" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="N585" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="O585" t="n">
+        <v>7.531</v>
+      </c>
+      <c r="P585" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>7.623</v>
+      </c>
+      <c r="R585" t="n">
+        <v>7.624</v>
+      </c>
+      <c r="S585" t="n">
+        <v>7.602</v>
+      </c>
+      <c r="T585" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="U585" t="n">
+        <v>7.744</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B586" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C586" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D586" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="E586" t="n">
+        <v>6.414</v>
+      </c>
+      <c r="F586" t="n">
+        <v>6.874</v>
+      </c>
+      <c r="G586" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="H586" t="n">
+        <v>7.198</v>
+      </c>
+      <c r="I586" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="J586" t="n">
+        <v>7.335</v>
+      </c>
+      <c r="K586" t="n">
+        <v>7.309</v>
+      </c>
+      <c r="L586" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="M586" t="n">
+        <v>7.449</v>
+      </c>
+      <c r="N586" t="n">
+        <v>7.436</v>
+      </c>
+      <c r="O586" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="P586" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="R586" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="S586" t="n">
+        <v>7.609</v>
+      </c>
+      <c r="T586" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="U586" t="n">
+        <v>7.767</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U586"/>
+  <dimension ref="A1:U587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38568,7 +38568,72 @@
         <v>7.555</v>
       </c>
       <c r="U586" t="n">
-        <v>7.767</v>
+        <v>7.758</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B587" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C587" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D587" t="n">
+        <v>6.443</v>
+      </c>
+      <c r="E587" t="n">
+        <v>6.454</v>
+      </c>
+      <c r="F587" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="G587" t="n">
+        <v>7.047</v>
+      </c>
+      <c r="H587" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="I587" t="n">
+        <v>7.324</v>
+      </c>
+      <c r="J587" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="K587" t="n">
+        <v>7.306</v>
+      </c>
+      <c r="L587" t="n">
+        <v>7.423</v>
+      </c>
+      <c r="M587" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="N587" t="n">
+        <v>7.428</v>
+      </c>
+      <c r="O587" t="n">
+        <v>7.554</v>
+      </c>
+      <c r="P587" t="n">
+        <v>7.573</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>7.627</v>
+      </c>
+      <c r="R587" t="n">
+        <v>7.627</v>
+      </c>
+      <c r="S587" t="n">
+        <v>7.605</v>
+      </c>
+      <c r="T587" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="U587" t="n">
+        <v>7.762</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U587"/>
+  <dimension ref="A1:U588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38576,10 +38576,10 @@
         <v>44763</v>
       </c>
       <c r="B587" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="C587" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D587" t="n">
         <v>6.443</v>
@@ -38634,6 +38634,71 @@
       </c>
       <c r="U587" t="n">
         <v>7.762</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B588" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C588" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D588" t="n">
+        <v>6.406</v>
+      </c>
+      <c r="E588" t="n">
+        <v>6.402</v>
+      </c>
+      <c r="F588" t="n">
+        <v>6.785</v>
+      </c>
+      <c r="G588" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="H588" t="n">
+        <v>7.148</v>
+      </c>
+      <c r="I588" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="J588" t="n">
+        <v>7.322</v>
+      </c>
+      <c r="K588" t="n">
+        <v>7.282</v>
+      </c>
+      <c r="L588" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="M588" t="n">
+        <v>7.414</v>
+      </c>
+      <c r="N588" t="n">
+        <v>7.402</v>
+      </c>
+      <c r="O588" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="P588" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>7.611</v>
+      </c>
+      <c r="R588" t="n">
+        <v>7.611</v>
+      </c>
+      <c r="S588" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="T588" t="n">
+        <v>7.536</v>
+      </c>
+      <c r="U588" t="n">
+        <v>7.73</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -38644,7 +38644,7 @@
         <v>5.45</v>
       </c>
       <c r="C588" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="D588" t="n">
         <v>6.406</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U588"/>
+  <dimension ref="A1:U589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38701,6 +38701,71 @@
         <v>7.73</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B589" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C589" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D589" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E589" t="n">
+        <v>6.442</v>
+      </c>
+      <c r="F589" t="n">
+        <v>6.826</v>
+      </c>
+      <c r="G589" t="n">
+        <v>7.035</v>
+      </c>
+      <c r="H589" t="n">
+        <v>7.128</v>
+      </c>
+      <c r="I589" t="n">
+        <v>7.289</v>
+      </c>
+      <c r="J589" t="n">
+        <v>7.303</v>
+      </c>
+      <c r="K589" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="L589" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="M589" t="n">
+        <v>7.391</v>
+      </c>
+      <c r="N589" t="n">
+        <v>7.379</v>
+      </c>
+      <c r="O589" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="P589" t="n">
+        <v>7.532</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>7.589</v>
+      </c>
+      <c r="R589" t="n">
+        <v>7.589</v>
+      </c>
+      <c r="S589" t="n">
+        <v>7.568</v>
+      </c>
+      <c r="T589" t="n">
+        <v>7.514</v>
+      </c>
+      <c r="U589" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U589"/>
+  <dimension ref="A1:U590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38712,7 +38712,7 @@
         <v>5.84</v>
       </c>
       <c r="D589" t="n">
-        <v>6.33</v>
+        <v>6.306</v>
       </c>
       <c r="E589" t="n">
         <v>6.442</v>
@@ -38764,6 +38764,71 @@
       </c>
       <c r="U589" t="n">
         <v>7.71</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B590" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="C590" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D590" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="E590" t="n">
+        <v>6.511</v>
+      </c>
+      <c r="F590" t="n">
+        <v>6.823</v>
+      </c>
+      <c r="G590" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="H590" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="I590" t="n">
+        <v>7.276</v>
+      </c>
+      <c r="J590" t="n">
+        <v>7.284</v>
+      </c>
+      <c r="K590" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="L590" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="M590" t="n">
+        <v>7.367</v>
+      </c>
+      <c r="N590" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="O590" t="n">
+        <v>7.498</v>
+      </c>
+      <c r="P590" t="n">
+        <v>7.517</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>7.576</v>
+      </c>
+      <c r="R590" t="n">
+        <v>7.595</v>
+      </c>
+      <c r="S590" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="T590" t="n">
+        <v>7.501</v>
+      </c>
+      <c r="U590" t="n">
+        <v>7.699</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U590"/>
+  <dimension ref="A1:U591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38831,6 +38831,71 @@
         <v>7.699</v>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B591" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C591" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D591" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E591" t="n">
+        <v>6.538</v>
+      </c>
+      <c r="F591" t="n">
+        <v>6.824</v>
+      </c>
+      <c r="G591" t="n">
+        <v>7.009</v>
+      </c>
+      <c r="H591" t="n">
+        <v>7.121</v>
+      </c>
+      <c r="I591" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="J591" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="K591" t="n">
+        <v>7.226</v>
+      </c>
+      <c r="L591" t="n">
+        <v>7.342</v>
+      </c>
+      <c r="M591" t="n">
+        <v>7.338</v>
+      </c>
+      <c r="N591" t="n">
+        <v>7.326</v>
+      </c>
+      <c r="O591" t="n">
+        <v>7.457</v>
+      </c>
+      <c r="P591" t="n">
+        <v>7.502</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>7.564</v>
+      </c>
+      <c r="R591" t="n">
+        <v>7.597</v>
+      </c>
+      <c r="S591" t="n">
+        <v>7.542</v>
+      </c>
+      <c r="T591" t="n">
+        <v>7.489</v>
+      </c>
+      <c r="U591" t="n">
+        <v>7.694</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U591"/>
+  <dimension ref="A1:U592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38896,6 +38896,71 @@
         <v>7.694</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B592" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C592" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D592" t="n">
+        <v>6.324</v>
+      </c>
+      <c r="E592" t="n">
+        <v>6.473</v>
+      </c>
+      <c r="F592" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G592" t="n">
+        <v>6.964</v>
+      </c>
+      <c r="H592" t="n">
+        <v>7.101</v>
+      </c>
+      <c r="I592" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="J592" t="n">
+        <v>7.244</v>
+      </c>
+      <c r="K592" t="n">
+        <v>7.207</v>
+      </c>
+      <c r="L592" t="n">
+        <v>7.326</v>
+      </c>
+      <c r="M592" t="n">
+        <v>7.332</v>
+      </c>
+      <c r="N592" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="O592" t="n">
+        <v>7.451</v>
+      </c>
+      <c r="P592" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="R592" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="S592" t="n">
+        <v>7.541</v>
+      </c>
+      <c r="T592" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="U592" t="n">
+        <v>7.695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U592"/>
+  <dimension ref="A1:U593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38949,7 +38949,7 @@
         <v>7.563</v>
       </c>
       <c r="R592" t="n">
-        <v>7.62</v>
+        <v>7.586</v>
       </c>
       <c r="S592" t="n">
         <v>7.541</v>
@@ -38959,6 +38959,71 @@
       </c>
       <c r="U592" t="n">
         <v>7.695</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B593" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C593" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D593" t="n">
+        <v>6.347</v>
+      </c>
+      <c r="E593" t="n">
+        <v>6.406</v>
+      </c>
+      <c r="F593" t="n">
+        <v>6.753</v>
+      </c>
+      <c r="G593" t="n">
+        <v>6.952</v>
+      </c>
+      <c r="H593" t="n">
+        <v>7.074</v>
+      </c>
+      <c r="I593" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="J593" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="K593" t="n">
+        <v>7.197</v>
+      </c>
+      <c r="L593" t="n">
+        <v>7.316</v>
+      </c>
+      <c r="M593" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="N593" t="n">
+        <v>7.307</v>
+      </c>
+      <c r="O593" t="n">
+        <v>7.442</v>
+      </c>
+      <c r="P593" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="R593" t="n">
+        <v>7.546</v>
+      </c>
+      <c r="S593" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T593" t="n">
+        <v>7.547</v>
+      </c>
+      <c r="U593" t="n">
+        <v>7.679</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U593"/>
+  <dimension ref="A1:U594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39026,6 +39026,71 @@
         <v>7.679</v>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B594" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C594" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D594" t="n">
+        <v>6.294</v>
+      </c>
+      <c r="E594" t="n">
+        <v>6.566</v>
+      </c>
+      <c r="F594" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G594" t="n">
+        <v>6.863</v>
+      </c>
+      <c r="H594" t="n">
+        <v>6.949</v>
+      </c>
+      <c r="I594" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="J594" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="K594" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="L594" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="M594" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="N594" t="n">
+        <v>7.366</v>
+      </c>
+      <c r="O594" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="P594" t="n">
+        <v>7.406</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>7.461</v>
+      </c>
+      <c r="R594" t="n">
+        <v>7.506</v>
+      </c>
+      <c r="S594" t="n">
+        <v>7.523</v>
+      </c>
+      <c r="T594" t="n">
+        <v>7.446</v>
+      </c>
+      <c r="U594" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U594"/>
+  <dimension ref="A1:U595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39091,6 +39091,71 @@
         <v>7.62</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B595" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C595" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D595" t="n">
+        <v>6.338</v>
+      </c>
+      <c r="E595" t="n">
+        <v>6.532</v>
+      </c>
+      <c r="F595" t="n">
+        <v>6.806</v>
+      </c>
+      <c r="G595" t="n">
+        <v>6.859</v>
+      </c>
+      <c r="H595" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="I595" t="n">
+        <v>7.122</v>
+      </c>
+      <c r="J595" t="n">
+        <v>7.109</v>
+      </c>
+      <c r="K595" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="L595" t="n">
+        <v>7.188</v>
+      </c>
+      <c r="M595" t="n">
+        <v>7.196</v>
+      </c>
+      <c r="N595" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="O595" t="n">
+        <v>7.314</v>
+      </c>
+      <c r="P595" t="n">
+        <v>7.358</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>7.412</v>
+      </c>
+      <c r="R595" t="n">
+        <v>7.419</v>
+      </c>
+      <c r="S595" t="n">
+        <v>7.473</v>
+      </c>
+      <c r="T595" t="n">
+        <v>7.418</v>
+      </c>
+      <c r="U595" t="n">
+        <v>7.583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U595"/>
+  <dimension ref="A1:U596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39102,7 +39102,7 @@
         <v>5.81</v>
       </c>
       <c r="D595" t="n">
-        <v>6.338</v>
+        <v>6.273</v>
       </c>
       <c r="E595" t="n">
         <v>6.532</v>
@@ -39111,7 +39111,7 @@
         <v>6.806</v>
       </c>
       <c r="G595" t="n">
-        <v>6.859</v>
+        <v>6.858</v>
       </c>
       <c r="H595" t="n">
         <v>6.934</v>
@@ -39154,6 +39154,71 @@
       </c>
       <c r="U595" t="n">
         <v>7.583</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B596" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C596" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D596" t="n">
+        <v>6.285</v>
+      </c>
+      <c r="E596" t="n">
+        <v>6.531</v>
+      </c>
+      <c r="F596" t="n">
+        <v>6.865</v>
+      </c>
+      <c r="G596" t="n">
+        <v>6.914</v>
+      </c>
+      <c r="H596" t="n">
+        <v>6.984</v>
+      </c>
+      <c r="I596" t="n">
+        <v>7.153</v>
+      </c>
+      <c r="J596" t="n">
+        <v>7.141</v>
+      </c>
+      <c r="K596" t="n">
+        <v>7.224</v>
+      </c>
+      <c r="L596" t="n">
+        <v>7.243</v>
+      </c>
+      <c r="M596" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="N596" t="n">
+        <v>7.379</v>
+      </c>
+      <c r="O596" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="P596" t="n">
+        <v>7.384</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="R596" t="n">
+        <v>7.459</v>
+      </c>
+      <c r="S596" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="T596" t="n">
+        <v>7.431</v>
+      </c>
+      <c r="U596" t="n">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U596"/>
+  <dimension ref="A1:U597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39221,6 +39221,71 @@
         <v>7.6</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B597" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C597" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="D597" t="n">
+        <v>6.199</v>
+      </c>
+      <c r="E597" t="n">
+        <v>6.429</v>
+      </c>
+      <c r="F597" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="G597" t="n">
+        <v>6.803</v>
+      </c>
+      <c r="H597" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="I597" t="n">
+        <v>7.137</v>
+      </c>
+      <c r="J597" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="K597" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="L597" t="n">
+        <v>7.156</v>
+      </c>
+      <c r="M597" t="n">
+        <v>7.157</v>
+      </c>
+      <c r="N597" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="O597" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="P597" t="n">
+        <v>7.332</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>7.372</v>
+      </c>
+      <c r="R597" t="n">
+        <v>7.386</v>
+      </c>
+      <c r="S597" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="T597" t="n">
+        <v>7.399</v>
+      </c>
+      <c r="U597" t="n">
+        <v>7.547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U597"/>
+  <dimension ref="A1:U598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39286,6 +39286,71 @@
         <v>7.547</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B598" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C598" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D598" t="n">
+        <v>6.299</v>
+      </c>
+      <c r="E598" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="F598" t="n">
+        <v>6.879</v>
+      </c>
+      <c r="G598" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="H598" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="I598" t="n">
+        <v>7.203</v>
+      </c>
+      <c r="J598" t="n">
+        <v>7.194</v>
+      </c>
+      <c r="K598" t="n">
+        <v>7.238</v>
+      </c>
+      <c r="L598" t="n">
+        <v>7.271</v>
+      </c>
+      <c r="M598" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N598" t="n">
+        <v>7.427</v>
+      </c>
+      <c r="O598" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="P598" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>7.497</v>
+      </c>
+      <c r="R598" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S598" t="n">
+        <v>7.559</v>
+      </c>
+      <c r="T598" t="n">
+        <v>7.524</v>
+      </c>
+      <c r="U598" t="n">
+        <v>7.652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U598"/>
+  <dimension ref="A1:U599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39351,6 +39351,71 @@
         <v>7.652</v>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B599" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C599" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="D599" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="E599" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="F599" t="n">
+        <v>6.914</v>
+      </c>
+      <c r="G599" t="n">
+        <v>6.949</v>
+      </c>
+      <c r="H599" t="n">
+        <v>7.054</v>
+      </c>
+      <c r="I599" t="n">
+        <v>7.219</v>
+      </c>
+      <c r="J599" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="K599" t="n">
+        <v>7.281</v>
+      </c>
+      <c r="L599" t="n">
+        <v>7.309</v>
+      </c>
+      <c r="M599" t="n">
+        <v>7.348</v>
+      </c>
+      <c r="N599" t="n">
+        <v>7.428</v>
+      </c>
+      <c r="O599" t="n">
+        <v>7.459</v>
+      </c>
+      <c r="P599" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="R599" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="S599" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="T599" t="n">
+        <v>7.572</v>
+      </c>
+      <c r="U599" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U599"/>
+  <dimension ref="A1:U600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39416,6 +39416,71 @@
         <v>7.69</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B600" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C600" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="D600" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="E600" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="F600" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G600" t="n">
+        <v>6.916</v>
+      </c>
+      <c r="H600" t="n">
+        <v>7.007</v>
+      </c>
+      <c r="I600" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="J600" t="n">
+        <v>7.181</v>
+      </c>
+      <c r="K600" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="L600" t="n">
+        <v>7.278</v>
+      </c>
+      <c r="M600" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="N600" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="O600" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="P600" t="n">
+        <v>7.444</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>7.517</v>
+      </c>
+      <c r="R600" t="n">
+        <v>7.527</v>
+      </c>
+      <c r="S600" t="n">
+        <v>7.578</v>
+      </c>
+      <c r="T600" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="U600" t="n">
+        <v>7.669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U600"/>
+  <dimension ref="A1:U601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39481,6 +39481,71 @@
         <v>7.669</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B601" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C601" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D601" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="E601" t="n">
+        <v>6.512</v>
+      </c>
+      <c r="F601" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G601" t="n">
+        <v>6.872</v>
+      </c>
+      <c r="H601" t="n">
+        <v>6.968</v>
+      </c>
+      <c r="I601" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="J601" t="n">
+        <v>7.147</v>
+      </c>
+      <c r="K601" t="n">
+        <v>7.207</v>
+      </c>
+      <c r="L601" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="M601" t="n">
+        <v>7.267</v>
+      </c>
+      <c r="N601" t="n">
+        <v>7.386</v>
+      </c>
+      <c r="O601" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="P601" t="n">
+        <v>7.418</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>7.482</v>
+      </c>
+      <c r="R601" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="S601" t="n">
+        <v>7.542</v>
+      </c>
+      <c r="T601" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="U601" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U601"/>
+  <dimension ref="A1:U602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39489,7 +39489,7 @@
         <v>5.61</v>
       </c>
       <c r="C601" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="D601" t="n">
         <v>6.264</v>
@@ -39544,6 +39544,71 @@
       </c>
       <c r="U601" t="n">
         <v>7.65</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B602" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C602" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D602" t="n">
+        <v>6.307</v>
+      </c>
+      <c r="E602" t="n">
+        <v>6.516</v>
+      </c>
+      <c r="F602" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="G602" t="n">
+        <v>6.881</v>
+      </c>
+      <c r="H602" t="n">
+        <v>6.962</v>
+      </c>
+      <c r="I602" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="J602" t="n">
+        <v>7.147</v>
+      </c>
+      <c r="K602" t="n">
+        <v>7.228</v>
+      </c>
+      <c r="L602" t="n">
+        <v>7.257</v>
+      </c>
+      <c r="M602" t="n">
+        <v>7.289</v>
+      </c>
+      <c r="N602" t="n">
+        <v>7.365</v>
+      </c>
+      <c r="O602" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="P602" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>7.491</v>
+      </c>
+      <c r="R602" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="S602" t="n">
+        <v>7.487</v>
+      </c>
+      <c r="T602" t="n">
+        <v>7.452</v>
+      </c>
+      <c r="U602" t="n">
+        <v>7.652</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U602"/>
+  <dimension ref="A1:U603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39611,6 +39611,71 @@
         <v>7.652</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B603" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="C603" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D603" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="E603" t="n">
+        <v>6.452</v>
+      </c>
+      <c r="F603" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="G603" t="n">
+        <v>6.785</v>
+      </c>
+      <c r="H603" t="n">
+        <v>6.872</v>
+      </c>
+      <c r="I603" t="n">
+        <v>7.061</v>
+      </c>
+      <c r="J603" t="n">
+        <v>7.059</v>
+      </c>
+      <c r="K603" t="n">
+        <v>7.104</v>
+      </c>
+      <c r="L603" t="n">
+        <v>7.128</v>
+      </c>
+      <c r="M603" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="N603" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="O603" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="P603" t="n">
+        <v>7.303</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="R603" t="n">
+        <v>7.398</v>
+      </c>
+      <c r="S603" t="n">
+        <v>7.379</v>
+      </c>
+      <c r="T603" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="U603" t="n">
+        <v>7.544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U603"/>
+  <dimension ref="A1:U604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39676,6 +39676,71 @@
         <v>7.544</v>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B604" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C604" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D604" t="n">
+        <v>6.247</v>
+      </c>
+      <c r="E604" t="n">
+        <v>6.492</v>
+      </c>
+      <c r="F604" t="n">
+        <v>6.806</v>
+      </c>
+      <c r="G604" t="n">
+        <v>6.851</v>
+      </c>
+      <c r="H604" t="n">
+        <v>6.935</v>
+      </c>
+      <c r="I604" t="n">
+        <v>7.116</v>
+      </c>
+      <c r="J604" t="n">
+        <v>7.116</v>
+      </c>
+      <c r="K604" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="L604" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="M604" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="N604" t="n">
+        <v>7.348</v>
+      </c>
+      <c r="O604" t="n">
+        <v>7.341</v>
+      </c>
+      <c r="P604" t="n">
+        <v>7.333</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="R604" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="S604" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="T604" t="n">
+        <v>7.395</v>
+      </c>
+      <c r="U604" t="n">
+        <v>7.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U604"/>
+  <dimension ref="A1:U605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39684,7 +39684,7 @@
         <v>5.56</v>
       </c>
       <c r="C604" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="D604" t="n">
         <v>6.247</v>
@@ -39720,7 +39720,7 @@
         <v>7.348</v>
       </c>
       <c r="O604" t="n">
-        <v>7.341</v>
+        <v>7.335</v>
       </c>
       <c r="P604" t="n">
         <v>7.333</v>
@@ -39739,6 +39739,71 @@
       </c>
       <c r="U604" t="n">
         <v>7.588</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B605" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C605" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D605" t="n">
+        <v>6.241</v>
+      </c>
+      <c r="E605" t="n">
+        <v>6.578</v>
+      </c>
+      <c r="F605" t="n">
+        <v>6.844</v>
+      </c>
+      <c r="G605" t="n">
+        <v>6.876</v>
+      </c>
+      <c r="H605" t="n">
+        <v>6.972</v>
+      </c>
+      <c r="I605" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="J605" t="n">
+        <v>7.153</v>
+      </c>
+      <c r="K605" t="n">
+        <v>7.243</v>
+      </c>
+      <c r="L605" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M605" t="n">
+        <v>7.266</v>
+      </c>
+      <c r="N605" t="n">
+        <v>7.381</v>
+      </c>
+      <c r="O605" t="n">
+        <v>7.361</v>
+      </c>
+      <c r="P605" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>7.453</v>
+      </c>
+      <c r="R605" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="S605" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="T605" t="n">
+        <v>7.416</v>
+      </c>
+      <c r="U605" t="n">
+        <v>7.593</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -39755,7 +39755,7 @@
         <v>6.241</v>
       </c>
       <c r="E605" t="n">
-        <v>6.578</v>
+        <v>6.567</v>
       </c>
       <c r="F605" t="n">
         <v>6.844</v>
@@ -39764,7 +39764,7 @@
         <v>6.876</v>
       </c>
       <c r="H605" t="n">
-        <v>6.972</v>
+        <v>6.968</v>
       </c>
       <c r="I605" t="n">
         <v>7.139</v>
@@ -39779,10 +39779,10 @@
         <v>7.25</v>
       </c>
       <c r="M605" t="n">
-        <v>7.266</v>
+        <v>7.264</v>
       </c>
       <c r="N605" t="n">
-        <v>7.381</v>
+        <v>7.35</v>
       </c>
       <c r="O605" t="n">
         <v>7.361</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U605"/>
+  <dimension ref="A1:U606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39806,6 +39806,71 @@
         <v>7.593</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B606" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C606" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D606" t="n">
+        <v>6.371</v>
+      </c>
+      <c r="E606" t="n">
+        <v>6.561</v>
+      </c>
+      <c r="F606" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G606" t="n">
+        <v>6.873</v>
+      </c>
+      <c r="H606" t="n">
+        <v>6.978</v>
+      </c>
+      <c r="I606" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="J606" t="n">
+        <v>7.155</v>
+      </c>
+      <c r="K606" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="L606" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="M606" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="N606" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="O606" t="n">
+        <v>7.387</v>
+      </c>
+      <c r="P606" t="n">
+        <v>7.369</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>7.458</v>
+      </c>
+      <c r="R606" t="n">
+        <v>7.474</v>
+      </c>
+      <c r="S606" t="n">
+        <v>7.455</v>
+      </c>
+      <c r="T606" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U606" t="n">
+        <v>7.595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U606"/>
+  <dimension ref="A1:U607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39871,6 +39871,71 @@
         <v>7.595</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B607" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C607" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D607" t="n">
+        <v>6.265</v>
+      </c>
+      <c r="E607" t="n">
+        <v>6.566</v>
+      </c>
+      <c r="F607" t="n">
+        <v>6.876</v>
+      </c>
+      <c r="G607" t="n">
+        <v>6.905</v>
+      </c>
+      <c r="H607" t="n">
+        <v>6.992</v>
+      </c>
+      <c r="I607" t="n">
+        <v>7.163</v>
+      </c>
+      <c r="J607" t="n">
+        <v>7.163</v>
+      </c>
+      <c r="K607" t="n">
+        <v>7.251</v>
+      </c>
+      <c r="L607" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="M607" t="n">
+        <v>7.281</v>
+      </c>
+      <c r="N607" t="n">
+        <v>7.369</v>
+      </c>
+      <c r="O607" t="n">
+        <v>7.361</v>
+      </c>
+      <c r="P607" t="n">
+        <v>7.372</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>7.464</v>
+      </c>
+      <c r="R607" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="S607" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="T607" t="n">
+        <v>7.426</v>
+      </c>
+      <c r="U607" t="n">
+        <v>7.585</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U607"/>
+  <dimension ref="A1:U608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39811,7 +39811,7 @@
         <v>44795</v>
       </c>
       <c r="B606" t="n">
-        <v>5.55</v>
+        <v>5.58</v>
       </c>
       <c r="C606" t="n">
         <v>5.93</v>
@@ -39934,6 +39934,71 @@
       </c>
       <c r="U607" t="n">
         <v>7.585</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B608" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C608" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D608" t="n">
+        <v>6.387</v>
+      </c>
+      <c r="E608" t="n">
+        <v>6.624</v>
+      </c>
+      <c r="F608" t="n">
+        <v>6.892</v>
+      </c>
+      <c r="G608" t="n">
+        <v>6.926</v>
+      </c>
+      <c r="H608" t="n">
+        <v>7.012</v>
+      </c>
+      <c r="I608" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="J608" t="n">
+        <v>7.165</v>
+      </c>
+      <c r="K608" t="n">
+        <v>7.229</v>
+      </c>
+      <c r="L608" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="M608" t="n">
+        <v>7.286</v>
+      </c>
+      <c r="N608" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="O608" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="P608" t="n">
+        <v>7.372</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>7.458</v>
+      </c>
+      <c r="R608" t="n">
+        <v>7.474</v>
+      </c>
+      <c r="S608" t="n">
+        <v>7.454</v>
+      </c>
+      <c r="T608" t="n">
+        <v>7.439</v>
+      </c>
+      <c r="U608" t="n">
+        <v>7.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U608"/>
+  <dimension ref="A1:U609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39950,7 +39950,7 @@
         <v>6.387</v>
       </c>
       <c r="E608" t="n">
-        <v>6.624</v>
+        <v>6.578</v>
       </c>
       <c r="F608" t="n">
         <v>6.892</v>
@@ -39999,6 +39999,71 @@
       </c>
       <c r="U608" t="n">
         <v>7.58</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B609" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C609" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D609" t="n">
+        <v>6.349</v>
+      </c>
+      <c r="E609" t="n">
+        <v>6.595</v>
+      </c>
+      <c r="F609" t="n">
+        <v>6.915</v>
+      </c>
+      <c r="G609" t="n">
+        <v>6.949</v>
+      </c>
+      <c r="H609" t="n">
+        <v>7.036</v>
+      </c>
+      <c r="I609" t="n">
+        <v>7.171</v>
+      </c>
+      <c r="J609" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K609" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="L609" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="M609" t="n">
+        <v>7.292</v>
+      </c>
+      <c r="N609" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="O609" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="P609" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>7.469</v>
+      </c>
+      <c r="R609" t="n">
+        <v>7.482</v>
+      </c>
+      <c r="S609" t="n">
+        <v>7.497</v>
+      </c>
+      <c r="T609" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="U609" t="n">
+        <v>7.576</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U609"/>
+  <dimension ref="A1:U610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40021,7 +40021,7 @@
         <v>6.915</v>
       </c>
       <c r="G609" t="n">
-        <v>6.949</v>
+        <v>6.941</v>
       </c>
       <c r="H609" t="n">
         <v>7.036</v>
@@ -40048,7 +40048,7 @@
         <v>7.38</v>
       </c>
       <c r="P609" t="n">
-        <v>7.383</v>
+        <v>7.378</v>
       </c>
       <c r="Q609" t="n">
         <v>7.469</v>
@@ -40064,6 +40064,71 @@
       </c>
       <c r="U609" t="n">
         <v>7.576</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B610" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C610" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D610" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E610" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="F610" t="n">
+        <v>6.853</v>
+      </c>
+      <c r="G610" t="n">
+        <v>6.906</v>
+      </c>
+      <c r="H610" t="n">
+        <v>6.991</v>
+      </c>
+      <c r="I610" t="n">
+        <v>7.105</v>
+      </c>
+      <c r="J610" t="n">
+        <v>7.105</v>
+      </c>
+      <c r="K610" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="L610" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M610" t="n">
+        <v>7.217</v>
+      </c>
+      <c r="N610" t="n">
+        <v>7.291</v>
+      </c>
+      <c r="O610" t="n">
+        <v>7.299</v>
+      </c>
+      <c r="P610" t="n">
+        <v>7.303</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="R610" t="n">
+        <v>7.393</v>
+      </c>
+      <c r="S610" t="n">
+        <v>7.412</v>
+      </c>
+      <c r="T610" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="U610" t="n">
+        <v>7.515</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U610"/>
+  <dimension ref="A1:U611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40131,6 +40131,71 @@
         <v>7.515</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B611" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C611" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D611" t="n">
+        <v>6.433</v>
+      </c>
+      <c r="E611" t="n">
+        <v>6.671</v>
+      </c>
+      <c r="F611" t="n">
+        <v>6.926</v>
+      </c>
+      <c r="G611" t="n">
+        <v>6.955</v>
+      </c>
+      <c r="H611" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="I611" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="J611" t="n">
+        <v>7.146</v>
+      </c>
+      <c r="K611" t="n">
+        <v>7.213</v>
+      </c>
+      <c r="L611" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="M611" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="N611" t="n">
+        <v>7.318</v>
+      </c>
+      <c r="O611" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="P611" t="n">
+        <v>7.316</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>7.401</v>
+      </c>
+      <c r="R611" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="S611" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="T611" t="n">
+        <v>7.426</v>
+      </c>
+      <c r="U611" t="n">
+        <v>7.524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U611"/>
+  <dimension ref="A1:U612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40142,10 +40142,10 @@
         <v>5.99</v>
       </c>
       <c r="D611" t="n">
-        <v>6.433</v>
+        <v>6.502</v>
       </c>
       <c r="E611" t="n">
-        <v>6.671</v>
+        <v>6.594</v>
       </c>
       <c r="F611" t="n">
         <v>6.926</v>
@@ -40194,6 +40194,71 @@
       </c>
       <c r="U611" t="n">
         <v>7.524</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B612" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C612" t="n">
+        <v>6</v>
+      </c>
+      <c r="D612" t="n">
+        <v>6.343</v>
+      </c>
+      <c r="E612" t="n">
+        <v>6.594</v>
+      </c>
+      <c r="F612" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="G612" t="n">
+        <v>6.919</v>
+      </c>
+      <c r="H612" t="n">
+        <v>6.986</v>
+      </c>
+      <c r="I612" t="n">
+        <v>7.093</v>
+      </c>
+      <c r="J612" t="n">
+        <v>7.088</v>
+      </c>
+      <c r="K612" t="n">
+        <v>7.141</v>
+      </c>
+      <c r="L612" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="M612" t="n">
+        <v>7.188</v>
+      </c>
+      <c r="N612" t="n">
+        <v>7.264</v>
+      </c>
+      <c r="O612" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="P612" t="n">
+        <v>7.273</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>7.352</v>
+      </c>
+      <c r="R612" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="S612" t="n">
+        <v>7.381</v>
+      </c>
+      <c r="T612" t="n">
+        <v>7.312</v>
+      </c>
+      <c r="U612" t="n">
+        <v>7.462</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U612"/>
+  <dimension ref="A1:U613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40261,6 +40261,71 @@
         <v>7.462</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B613" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C613" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D613" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E613" t="n">
+        <v>6.606</v>
+      </c>
+      <c r="F613" t="n">
+        <v>6.931</v>
+      </c>
+      <c r="G613" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="H613" t="n">
+        <v>6.998</v>
+      </c>
+      <c r="I613" t="n">
+        <v>7.107</v>
+      </c>
+      <c r="J613" t="n">
+        <v>7.107</v>
+      </c>
+      <c r="K613" t="n">
+        <v>7.126</v>
+      </c>
+      <c r="L613" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="M613" t="n">
+        <v>7.215</v>
+      </c>
+      <c r="N613" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="O613" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="P613" t="n">
+        <v>7.289</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>7.379</v>
+      </c>
+      <c r="R613" t="n">
+        <v>7.393</v>
+      </c>
+      <c r="S613" t="n">
+        <v>7.408</v>
+      </c>
+      <c r="T613" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="U613" t="n">
+        <v>7.465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U613"/>
+  <dimension ref="A1:U614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40269,7 +40269,7 @@
         <v>5.66</v>
       </c>
       <c r="C613" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="D613" t="n">
         <v>6.355</v>
@@ -40324,6 +40324,71 @@
       </c>
       <c r="U613" t="n">
         <v>7.465</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B614" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C614" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D614" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E614" t="n">
+        <v>6.688</v>
+      </c>
+      <c r="F614" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G614" t="n">
+        <v>6.979</v>
+      </c>
+      <c r="H614" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="I614" t="n">
+        <v>7.186</v>
+      </c>
+      <c r="J614" t="n">
+        <v>7.165</v>
+      </c>
+      <c r="K614" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="L614" t="n">
+        <v>7.203</v>
+      </c>
+      <c r="M614" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="N614" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="O614" t="n">
+        <v>7.311</v>
+      </c>
+      <c r="P614" t="n">
+        <v>7.304</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="R614" t="n">
+        <v>7.397</v>
+      </c>
+      <c r="S614" t="n">
+        <v>7.426</v>
+      </c>
+      <c r="T614" t="n">
+        <v>7.358</v>
+      </c>
+      <c r="U614" t="n">
+        <v>7.494</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -40376,7 +40376,7 @@
         <v>7.304</v>
       </c>
       <c r="Q614" t="n">
-        <v>7.4</v>
+        <v>7.397</v>
       </c>
       <c r="R614" t="n">
         <v>7.397</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U614"/>
+  <dimension ref="A1:U615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40391,6 +40391,71 @@
         <v>7.494</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B615" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C615" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D615" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="E615" t="n">
+        <v>6.664</v>
+      </c>
+      <c r="F615" t="n">
+        <v>6.923</v>
+      </c>
+      <c r="G615" t="n">
+        <v>6.962</v>
+      </c>
+      <c r="H615" t="n">
+        <v>7.037</v>
+      </c>
+      <c r="I615" t="n">
+        <v>7.172</v>
+      </c>
+      <c r="J615" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="K615" t="n">
+        <v>7.115</v>
+      </c>
+      <c r="L615" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="M615" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="N615" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="O615" t="n">
+        <v>7.313</v>
+      </c>
+      <c r="P615" t="n">
+        <v>7.298</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="R615" t="n">
+        <v>7.384</v>
+      </c>
+      <c r="S615" t="n">
+        <v>7.412</v>
+      </c>
+      <c r="T615" t="n">
+        <v>7.343</v>
+      </c>
+      <c r="U615" t="n">
+        <v>7.475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U615"/>
+  <dimension ref="A1:U616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40399,7 +40399,7 @@
         <v>5.63</v>
       </c>
       <c r="C615" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="D615" t="n">
         <v>6.353</v>
@@ -40454,6 +40454,71 @@
       </c>
       <c r="U615" t="n">
         <v>7.475</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B616" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C616" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D616" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="E616" t="n">
+        <v>6.652</v>
+      </c>
+      <c r="F616" t="n">
+        <v>6.905</v>
+      </c>
+      <c r="G616" t="n">
+        <v>6.952</v>
+      </c>
+      <c r="H616" t="n">
+        <v>7.014</v>
+      </c>
+      <c r="I616" t="n">
+        <v>7.146</v>
+      </c>
+      <c r="J616" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="K616" t="n">
+        <v>7.124</v>
+      </c>
+      <c r="L616" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="M616" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="N616" t="n">
+        <v>7.213</v>
+      </c>
+      <c r="O616" t="n">
+        <v>7.296</v>
+      </c>
+      <c r="P616" t="n">
+        <v>7.285</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="R616" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="S616" t="n">
+        <v>7.386</v>
+      </c>
+      <c r="T616" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="U616" t="n">
+        <v>7.453</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U616"/>
+  <dimension ref="A1:U618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40461,7 +40461,7 @@
         <v>44810</v>
       </c>
       <c r="B616" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="C616" t="n">
         <v>6.09</v>
@@ -40519,6 +40519,136 @@
       </c>
       <c r="U616" t="n">
         <v>7.453</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B617" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C617" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D617" t="n">
+        <v>6.318</v>
+      </c>
+      <c r="E617" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="F617" t="n">
+        <v>6.938</v>
+      </c>
+      <c r="G617" t="n">
+        <v>6.981</v>
+      </c>
+      <c r="H617" t="n">
+        <v>7.036</v>
+      </c>
+      <c r="I617" t="n">
+        <v>7.132</v>
+      </c>
+      <c r="J617" t="n">
+        <v>7.119</v>
+      </c>
+      <c r="K617" t="n">
+        <v>7.123</v>
+      </c>
+      <c r="L617" t="n">
+        <v>7.149</v>
+      </c>
+      <c r="M617" t="n">
+        <v>7.185</v>
+      </c>
+      <c r="N617" t="n">
+        <v>7.193</v>
+      </c>
+      <c r="O617" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="P617" t="n">
+        <v>7.266</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="R617" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="S617" t="n">
+        <v>7.366</v>
+      </c>
+      <c r="T617" t="n">
+        <v>7.297</v>
+      </c>
+      <c r="U617" t="n">
+        <v>7.413</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B618" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C618" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D618" t="n">
+        <v>6.252</v>
+      </c>
+      <c r="E618" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="F618" t="n">
+        <v>6.887</v>
+      </c>
+      <c r="G618" t="n">
+        <v>6.927</v>
+      </c>
+      <c r="H618" t="n">
+        <v>6.984</v>
+      </c>
+      <c r="I618" t="n">
+        <v>7.061</v>
+      </c>
+      <c r="J618" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="K618" t="n">
+        <v>7.071</v>
+      </c>
+      <c r="L618" t="n">
+        <v>7.109</v>
+      </c>
+      <c r="M618" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="N618" t="n">
+        <v>7.142</v>
+      </c>
+      <c r="O618" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="P618" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>7.292</v>
+      </c>
+      <c r="R618" t="n">
+        <v>7.305</v>
+      </c>
+      <c r="S618" t="n">
+        <v>7.321</v>
+      </c>
+      <c r="T618" t="n">
+        <v>7.252</v>
+      </c>
+      <c r="U618" t="n">
+        <v>7.381</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U618"/>
+  <dimension ref="A1:U619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40606,7 +40606,7 @@
         <v>6.887</v>
       </c>
       <c r="G618" t="n">
-        <v>6.927</v>
+        <v>6.924</v>
       </c>
       <c r="H618" t="n">
         <v>6.984</v>
@@ -40649,6 +40649,71 @@
       </c>
       <c r="U618" t="n">
         <v>7.381</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B619" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C619" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D619" t="n">
+        <v>6.263</v>
+      </c>
+      <c r="E619" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="F619" t="n">
+        <v>6.869</v>
+      </c>
+      <c r="G619" t="n">
+        <v>6.929</v>
+      </c>
+      <c r="H619" t="n">
+        <v>6.954</v>
+      </c>
+      <c r="I619" t="n">
+        <v>7.083</v>
+      </c>
+      <c r="J619" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="K619" t="n">
+        <v>7.092</v>
+      </c>
+      <c r="L619" t="n">
+        <v>7.142</v>
+      </c>
+      <c r="M619" t="n">
+        <v>7.167</v>
+      </c>
+      <c r="N619" t="n">
+        <v>7.181</v>
+      </c>
+      <c r="O619" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="P619" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>7.307</v>
+      </c>
+      <c r="R619" t="n">
+        <v>7.321</v>
+      </c>
+      <c r="S619" t="n">
+        <v>7.336</v>
+      </c>
+      <c r="T619" t="n">
+        <v>7.267</v>
+      </c>
+      <c r="U619" t="n">
+        <v>7.354</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -40656,7 +40656,7 @@
         <v>44813</v>
       </c>
       <c r="B619" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C619" t="n">
         <v>6.07</v>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U619"/>
+  <dimension ref="A1:U621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40716,6 +40716,136 @@
         <v>7.354</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B620" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C620" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D620" t="n">
+        <v>6.285</v>
+      </c>
+      <c r="E620" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="F620" t="n">
+        <v>6.936</v>
+      </c>
+      <c r="G620" t="n">
+        <v>6.936</v>
+      </c>
+      <c r="H620" t="n">
+        <v>6.993</v>
+      </c>
+      <c r="I620" t="n">
+        <v>7.098</v>
+      </c>
+      <c r="J620" t="n">
+        <v>7.083</v>
+      </c>
+      <c r="K620" t="n">
+        <v>7.105</v>
+      </c>
+      <c r="L620" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="M620" t="n">
+        <v>7.181</v>
+      </c>
+      <c r="N620" t="n">
+        <v>7.199</v>
+      </c>
+      <c r="O620" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="P620" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>7.309</v>
+      </c>
+      <c r="R620" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="S620" t="n">
+        <v>7.338</v>
+      </c>
+      <c r="T620" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="U620" t="n">
+        <v>7.371</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B621" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C621" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="D621" t="n">
+        <v>6.253</v>
+      </c>
+      <c r="E621" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="F621" t="n">
+        <v>6.898</v>
+      </c>
+      <c r="G621" t="n">
+        <v>6.914</v>
+      </c>
+      <c r="H621" t="n">
+        <v>6.966</v>
+      </c>
+      <c r="I621" t="n">
+        <v>7.059</v>
+      </c>
+      <c r="J621" t="n">
+        <v>7.046</v>
+      </c>
+      <c r="K621" t="n">
+        <v>7.055</v>
+      </c>
+      <c r="L621" t="n">
+        <v>7.086</v>
+      </c>
+      <c r="M621" t="n">
+        <v>7.108</v>
+      </c>
+      <c r="N621" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="O621" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="P621" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="R621" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="S621" t="n">
+        <v>7.284</v>
+      </c>
+      <c r="T621" t="n">
+        <v>7.216</v>
+      </c>
+      <c r="U621" t="n">
+        <v>7.281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_India.xlsx
+++ b/Bonds_India.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U621"/>
+  <dimension ref="A1:U622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40789,7 +40789,7 @@
         <v>5.66</v>
       </c>
       <c r="C621" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="D621" t="n">
         <v>6.253</v>
@@ -40844,6 +40844,71 @@
       </c>
       <c r="U621" t="n">
         <v>7.281</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B622" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C622" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="D622" t="n">
+        <v>6.275</v>
+      </c>
+      <c r="E622" t="n">
+        <v>6.664</v>
+      </c>
+      <c r="F622" t="n">
+        <v>7.048</v>
+      </c>
+      <c r="G622" t="n">
+        <v>7.006</v>
+      </c>
+      <c r="H622" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="I622" t="n">
+        <v>7.098</v>
+      </c>
+      <c r="J622" t="n">
+        <v>7.102</v>
+      </c>
+      <c r="K622" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="L622" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="M622" t="n">
+        <v>7.155</v>
+      </c>
+      <c r="N622" t="n">
+        <v>7.223</v>
+      </c>
+      <c r="O622" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="P622" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>7.267</v>
+      </c>
+      <c r="R622" t="n">
+        <v>7.284</v>
+      </c>
+      <c r="S622" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="T622" t="n">
+        <v>7.251</v>
+      </c>
+      <c r="U622" t="n">
+        <v>7.305</v>
       </c>
     </row>
   </sheetData>
